--- a/carga_transporte.xlsx
+++ b/carga_transporte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\People Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C1CEE6-6B47-47AC-9671-28C24FA4E93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AC76B6-919F-4D5D-A8EE-6CBC7AEDD5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D7435815-07B8-4ACE-90BD-F41A14705C27}"/>
   </bookViews>
@@ -2101,33 +2101,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="3" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2136,45 +2112,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="3" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2183,9 +2126,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2199,12 +2139,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="20" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2214,12 +2148,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="22" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="24" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2234,12 +2162,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2259,26 +2181,104 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="29" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="29" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Millares [0] 2" xfId="5" xr:uid="{831BFDAD-DE81-4B65-B55C-FD9F04C54113}"/>
@@ -2625,8 +2625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28154246-E87C-42A3-8B74-67ABCF68DD92}">
   <dimension ref="A1:F2456"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A2396" workbookViewId="0">
+      <selection activeCell="A2415" sqref="A2415:A2421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44113,1958 +44113,1958 @@
       </c>
     </row>
     <row r="2075" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2075" s="104">
+      <c r="A2075" s="167">
         <v>45964</v>
       </c>
-      <c r="B2075" s="105" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2075" s="106" t="s">
+      <c r="B2075" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2075" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2075" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2075" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2075" s="108">
+      <c r="D2075" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2075" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2075" s="106">
         <v>31</v>
       </c>
     </row>
     <row r="2076" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2076" s="104"/>
-      <c r="B2076" s="105"/>
-      <c r="C2076" s="106" t="s">
+      <c r="A2076" s="167"/>
+      <c r="B2076" s="163"/>
+      <c r="C2076" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2076" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2076" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2076" s="108">
+      <c r="D2076" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2076" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2076" s="106">
         <v>15</v>
       </c>
     </row>
     <row r="2077" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2077" s="104"/>
-      <c r="B2077" s="105"/>
-      <c r="C2077" s="106" t="s">
+      <c r="A2077" s="167"/>
+      <c r="B2077" s="163"/>
+      <c r="C2077" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D2077" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2077" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2077" s="108">
+      <c r="D2077" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2077" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2077" s="106">
         <v>28</v>
       </c>
     </row>
     <row r="2078" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2078" s="104"/>
-      <c r="B2078" s="105"/>
-      <c r="C2078" s="106" t="s">
+      <c r="A2078" s="167"/>
+      <c r="B2078" s="163"/>
+      <c r="C2078" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D2078" s="106" t="s">
+      <c r="D2078" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2078" s="107">
+      <c r="E2078" s="105">
         <v>105000</v>
       </c>
-      <c r="F2078" s="108">
+      <c r="F2078" s="106">
         <v>20</v>
       </c>
     </row>
     <row r="2079" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2079" s="104"/>
-      <c r="B2079" s="105"/>
-      <c r="C2079" s="106" t="s">
+      <c r="A2079" s="167"/>
+      <c r="B2079" s="163"/>
+      <c r="C2079" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="D2079" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2079" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2079" s="108">
+      <c r="D2079" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2079" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2079" s="106">
         <v>34</v>
       </c>
     </row>
     <row r="2080" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2080" s="104"/>
-      <c r="B2080" s="105"/>
-      <c r="C2080" s="106" t="s">
+      <c r="A2080" s="167"/>
+      <c r="B2080" s="163"/>
+      <c r="C2080" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D2080" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2080" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2080" s="108">
+      <c r="D2080" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2080" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2080" s="106">
         <v>39</v>
       </c>
     </row>
     <row r="2081" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2081" s="104"/>
-      <c r="B2081" s="105"/>
-      <c r="C2081" s="106" t="s">
+      <c r="A2081" s="167"/>
+      <c r="B2081" s="163"/>
+      <c r="C2081" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="D2081" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2081" s="107">
+      <c r="D2081" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2081" s="105">
         <v>90000</v>
       </c>
-      <c r="F2081" s="108">
+      <c r="F2081" s="106">
         <v>17</v>
       </c>
     </row>
     <row r="2082" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2082" s="104"/>
-      <c r="B2082" s="105"/>
-      <c r="C2082" s="106" t="s">
+      <c r="A2082" s="167"/>
+      <c r="B2082" s="163"/>
+      <c r="C2082" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D2082" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2082" s="107">
+      <c r="D2082" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2082" s="105">
         <v>108000</v>
       </c>
-      <c r="F2082" s="108">
+      <c r="F2082" s="106">
         <v>33</v>
       </c>
     </row>
     <row r="2083" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2083" s="104"/>
-      <c r="B2083" s="105"/>
-      <c r="C2083" s="106" t="s">
+      <c r="A2083" s="167"/>
+      <c r="B2083" s="163"/>
+      <c r="C2083" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D2083" s="106" t="s">
+      <c r="D2083" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="E2083" s="107">
+      <c r="E2083" s="105">
         <v>90000</v>
       </c>
-      <c r="F2083" s="108">
+      <c r="F2083" s="106">
         <v>15</v>
       </c>
     </row>
     <row r="2084" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2084" s="104"/>
-      <c r="B2084" s="105"/>
-      <c r="C2084" s="106" t="s">
+      <c r="A2084" s="167"/>
+      <c r="B2084" s="163"/>
+      <c r="C2084" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D2084" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2084" s="107">
+      <c r="D2084" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2084" s="105">
         <v>119000</v>
       </c>
-      <c r="F2084" s="108">
+      <c r="F2084" s="106">
         <v>18</v>
       </c>
     </row>
     <row r="2085" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2085" s="104"/>
-      <c r="B2085" s="105"/>
-      <c r="C2085" s="106" t="s">
+      <c r="A2085" s="167"/>
+      <c r="B2085" s="163"/>
+      <c r="C2085" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="D2085" s="106" t="s">
+      <c r="D2085" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2085" s="107">
+      <c r="E2085" s="105">
         <v>105000</v>
       </c>
-      <c r="F2085" s="108">
+      <c r="F2085" s="106">
         <v>25</v>
       </c>
     </row>
     <row r="2086" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2086" s="104"/>
-      <c r="B2086" s="105"/>
-      <c r="C2086" s="106" t="s">
+      <c r="A2086" s="167"/>
+      <c r="B2086" s="163"/>
+      <c r="C2086" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D2086" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2086" s="107">
+      <c r="D2086" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2086" s="105">
         <v>90000</v>
       </c>
-      <c r="F2086" s="108">
+      <c r="F2086" s="106">
         <v>12</v>
       </c>
     </row>
     <row r="2087" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2087" s="109"/>
-      <c r="B2087" s="110"/>
-      <c r="C2087" s="106" t="s">
+      <c r="A2087" s="177"/>
+      <c r="B2087" s="176"/>
+      <c r="C2087" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="D2087" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2087" s="107">
+      <c r="D2087" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2087" s="105">
         <v>165000</v>
       </c>
-      <c r="F2087" s="108">
+      <c r="F2087" s="106">
         <v>26</v>
       </c>
     </row>
     <row r="2088" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2088" s="104">
+      <c r="A2088" s="167">
         <v>45965</v>
       </c>
-      <c r="B2088" s="105" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2088" s="106" t="s">
+      <c r="B2088" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2088" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2088" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2088" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2088" s="108">
+      <c r="D2088" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2088" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2088" s="106">
         <v>33</v>
       </c>
     </row>
     <row r="2089" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2089" s="104"/>
-      <c r="B2089" s="105"/>
-      <c r="C2089" s="106" t="s">
+      <c r="A2089" s="167"/>
+      <c r="B2089" s="163"/>
+      <c r="C2089" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2089" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2089" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2089" s="108">
+      <c r="D2089" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2089" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2089" s="106">
         <v>18</v>
       </c>
     </row>
     <row r="2090" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2090" s="104"/>
-      <c r="B2090" s="105"/>
-      <c r="C2090" s="106" t="s">
+      <c r="A2090" s="167"/>
+      <c r="B2090" s="163"/>
+      <c r="C2090" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D2090" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2090" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2090" s="108">
+      <c r="D2090" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2090" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2090" s="106">
         <v>28</v>
       </c>
     </row>
     <row r="2091" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2091" s="104"/>
-      <c r="B2091" s="105"/>
-      <c r="C2091" s="106" t="s">
+      <c r="A2091" s="167"/>
+      <c r="B2091" s="163"/>
+      <c r="C2091" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D2091" s="106" t="s">
+      <c r="D2091" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2091" s="107">
+      <c r="E2091" s="105">
         <v>105000</v>
       </c>
-      <c r="F2091" s="108">
+      <c r="F2091" s="106">
         <v>15</v>
       </c>
     </row>
     <row r="2092" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2092" s="104"/>
-      <c r="B2092" s="105"/>
-      <c r="C2092" s="106" t="s">
+      <c r="A2092" s="167"/>
+      <c r="B2092" s="163"/>
+      <c r="C2092" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="D2092" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2092" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2092" s="108">
+      <c r="D2092" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2092" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2092" s="106">
         <v>42</v>
       </c>
     </row>
     <row r="2093" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2093" s="104"/>
-      <c r="B2093" s="105"/>
-      <c r="C2093" s="106" t="s">
+      <c r="A2093" s="167"/>
+      <c r="B2093" s="163"/>
+      <c r="C2093" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D2093" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2093" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2093" s="108">
+      <c r="D2093" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2093" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2093" s="106">
         <v>34</v>
       </c>
     </row>
     <row r="2094" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2094" s="104"/>
-      <c r="B2094" s="105"/>
-      <c r="C2094" s="106" t="s">
+      <c r="A2094" s="167"/>
+      <c r="B2094" s="163"/>
+      <c r="C2094" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="D2094" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2094" s="107">
+      <c r="D2094" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2094" s="105">
         <v>90000</v>
       </c>
-      <c r="F2094" s="108">
+      <c r="F2094" s="106">
         <v>17</v>
       </c>
     </row>
     <row r="2095" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2095" s="104"/>
-      <c r="B2095" s="105"/>
-      <c r="C2095" s="106" t="s">
+      <c r="A2095" s="167"/>
+      <c r="B2095" s="163"/>
+      <c r="C2095" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D2095" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2095" s="107">
+      <c r="D2095" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2095" s="105">
         <v>108000</v>
       </c>
-      <c r="F2095" s="108">
+      <c r="F2095" s="106">
         <v>39</v>
       </c>
     </row>
     <row r="2096" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2096" s="104"/>
-      <c r="B2096" s="105"/>
-      <c r="C2096" s="106" t="s">
+      <c r="A2096" s="167"/>
+      <c r="B2096" s="163"/>
+      <c r="C2096" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D2096" s="106" t="s">
+      <c r="D2096" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="E2096" s="107">
+      <c r="E2096" s="105">
         <v>90000</v>
       </c>
-      <c r="F2096" s="108">
+      <c r="F2096" s="106">
         <v>20</v>
       </c>
     </row>
     <row r="2097" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2097" s="104"/>
-      <c r="B2097" s="105"/>
-      <c r="C2097" s="106" t="s">
+      <c r="A2097" s="167"/>
+      <c r="B2097" s="163"/>
+      <c r="C2097" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D2097" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2097" s="107">
+      <c r="D2097" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2097" s="105">
         <v>119000</v>
       </c>
-      <c r="F2097" s="108">
+      <c r="F2097" s="106">
         <v>27</v>
       </c>
     </row>
     <row r="2098" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2098" s="104"/>
-      <c r="B2098" s="105"/>
-      <c r="C2098" s="106" t="s">
+      <c r="A2098" s="167"/>
+      <c r="B2098" s="163"/>
+      <c r="C2098" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="D2098" s="106" t="s">
+      <c r="D2098" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2098" s="107">
+      <c r="E2098" s="105">
         <v>105000</v>
       </c>
-      <c r="F2098" s="108">
+      <c r="F2098" s="106">
         <v>24</v>
       </c>
     </row>
     <row r="2099" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2099" s="104"/>
-      <c r="B2099" s="105"/>
-      <c r="C2099" s="106" t="s">
+      <c r="A2099" s="167"/>
+      <c r="B2099" s="163"/>
+      <c r="C2099" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D2099" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2099" s="107">
+      <c r="D2099" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2099" s="105">
         <v>90000</v>
       </c>
-      <c r="F2099" s="108">
+      <c r="F2099" s="106">
         <v>12</v>
       </c>
     </row>
     <row r="2100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2100" s="104"/>
-      <c r="B2100" s="105"/>
-      <c r="C2100" s="106" t="s">
+      <c r="A2100" s="167"/>
+      <c r="B2100" s="163"/>
+      <c r="C2100" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="D2100" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2100" s="107">
+      <c r="D2100" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2100" s="105">
         <v>165000</v>
       </c>
-      <c r="F2100" s="108">
+      <c r="F2100" s="106">
         <v>29</v>
       </c>
     </row>
     <row r="2101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2101" s="111">
+      <c r="A2101" s="175">
         <v>45966</v>
       </c>
-      <c r="B2101" s="112" t="s">
+      <c r="B2101" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="C2101" s="106" t="s">
+      <c r="C2101" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2101" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2101" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2101" s="108">
+      <c r="D2101" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2101" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2101" s="106">
         <v>27</v>
       </c>
     </row>
     <row r="2102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2102" s="104"/>
-      <c r="B2102" s="105"/>
-      <c r="C2102" s="106" t="s">
+      <c r="A2102" s="167"/>
+      <c r="B2102" s="163"/>
+      <c r="C2102" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2102" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2102" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2102" s="108">
+      <c r="D2102" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2102" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2102" s="106">
         <v>20</v>
       </c>
     </row>
     <row r="2103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2103" s="104"/>
-      <c r="B2103" s="105"/>
-      <c r="C2103" s="106" t="s">
+      <c r="A2103" s="167"/>
+      <c r="B2103" s="163"/>
+      <c r="C2103" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D2103" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2103" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2103" s="108">
+      <c r="D2103" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2103" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2103" s="106">
         <v>28</v>
       </c>
     </row>
     <row r="2104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2104" s="104"/>
-      <c r="B2104" s="105"/>
-      <c r="C2104" s="106" t="s">
+      <c r="A2104" s="167"/>
+      <c r="B2104" s="163"/>
+      <c r="C2104" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D2104" s="106" t="s">
+      <c r="D2104" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2104" s="107">
+      <c r="E2104" s="105">
         <v>105000</v>
       </c>
-      <c r="F2104" s="108">
+      <c r="F2104" s="106">
         <v>16</v>
       </c>
     </row>
     <row r="2105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2105" s="104"/>
-      <c r="B2105" s="105"/>
-      <c r="C2105" s="106" t="s">
+      <c r="A2105" s="167"/>
+      <c r="B2105" s="163"/>
+      <c r="C2105" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="D2105" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2105" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2105" s="108">
+      <c r="D2105" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2105" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2105" s="106">
         <v>41</v>
       </c>
     </row>
     <row r="2106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2106" s="104"/>
-      <c r="B2106" s="105"/>
-      <c r="C2106" s="106" t="s">
+      <c r="A2106" s="167"/>
+      <c r="B2106" s="163"/>
+      <c r="C2106" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D2106" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2106" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2106" s="108">
+      <c r="D2106" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2106" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2106" s="106">
         <v>44</v>
       </c>
     </row>
     <row r="2107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2107" s="104"/>
-      <c r="B2107" s="105"/>
-      <c r="C2107" s="106" t="s">
+      <c r="A2107" s="167"/>
+      <c r="B2107" s="163"/>
+      <c r="C2107" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="D2107" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2107" s="107">
+      <c r="D2107" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2107" s="105">
         <v>90000</v>
       </c>
-      <c r="F2107" s="108">
+      <c r="F2107" s="106">
         <v>17</v>
       </c>
     </row>
     <row r="2108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2108" s="104"/>
-      <c r="B2108" s="105"/>
-      <c r="C2108" s="106" t="s">
+      <c r="A2108" s="167"/>
+      <c r="B2108" s="163"/>
+      <c r="C2108" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D2108" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2108" s="107">
+      <c r="D2108" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2108" s="105">
         <v>108000</v>
       </c>
-      <c r="F2108" s="108">
+      <c r="F2108" s="106">
         <v>40</v>
       </c>
     </row>
     <row r="2109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2109" s="104"/>
-      <c r="B2109" s="105"/>
-      <c r="C2109" s="106" t="s">
+      <c r="A2109" s="167"/>
+      <c r="B2109" s="163"/>
+      <c r="C2109" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="D2109" s="106" t="s">
+      <c r="D2109" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2109" s="107">
+      <c r="E2109" s="105">
         <v>97000</v>
       </c>
-      <c r="F2109" s="108">
+      <c r="F2109" s="106">
         <v>26</v>
       </c>
     </row>
     <row r="2110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2110" s="104"/>
-      <c r="B2110" s="105"/>
-      <c r="C2110" s="106" t="s">
+      <c r="A2110" s="167"/>
+      <c r="B2110" s="163"/>
+      <c r="C2110" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D2110" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2110" s="107">
+      <c r="D2110" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2110" s="105">
         <v>119000</v>
       </c>
-      <c r="F2110" s="108">
+      <c r="F2110" s="106">
         <v>31</v>
       </c>
     </row>
     <row r="2111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2111" s="104"/>
-      <c r="B2111" s="105"/>
-      <c r="C2111" s="106" t="s">
+      <c r="A2111" s="167"/>
+      <c r="B2111" s="163"/>
+      <c r="C2111" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="D2111" s="106" t="s">
+      <c r="D2111" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2111" s="107">
+      <c r="E2111" s="105">
         <v>105000</v>
       </c>
-      <c r="F2111" s="108">
+      <c r="F2111" s="106">
         <v>25</v>
       </c>
     </row>
     <row r="2112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2112" s="104"/>
-      <c r="B2112" s="105"/>
-      <c r="C2112" s="106" t="s">
+      <c r="A2112" s="167"/>
+      <c r="B2112" s="163"/>
+      <c r="C2112" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D2112" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2112" s="107">
+      <c r="D2112" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2112" s="105">
         <v>90000</v>
       </c>
-      <c r="F2112" s="108">
+      <c r="F2112" s="106">
         <v>12</v>
       </c>
     </row>
     <row r="2113" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2113" s="109"/>
-      <c r="B2113" s="110"/>
-      <c r="C2113" s="106" t="s">
+      <c r="A2113" s="177"/>
+      <c r="B2113" s="176"/>
+      <c r="C2113" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="D2113" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2113" s="107">
+      <c r="D2113" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2113" s="105">
         <v>165000</v>
       </c>
-      <c r="F2113" s="108">
+      <c r="F2113" s="106">
         <v>30</v>
       </c>
     </row>
     <row r="2114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2114" s="113">
+      <c r="A2114" s="166">
         <v>45967</v>
       </c>
-      <c r="B2114" s="114" t="s">
+      <c r="B2114" s="174" t="s">
         <v>21</v>
       </c>
-      <c r="C2114" s="106" t="s">
+      <c r="C2114" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2114" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2114" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2114" s="108">
+      <c r="D2114" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2114" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2114" s="106">
         <v>30</v>
       </c>
     </row>
     <row r="2115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2115" s="104"/>
-      <c r="B2115" s="105"/>
-      <c r="C2115" s="106" t="s">
+      <c r="A2115" s="167"/>
+      <c r="B2115" s="163"/>
+      <c r="C2115" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2115" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2115" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2115" s="108">
+      <c r="D2115" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2115" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2115" s="106">
         <v>20</v>
       </c>
     </row>
     <row r="2116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2116" s="104"/>
-      <c r="B2116" s="105"/>
-      <c r="C2116" s="106" t="s">
+      <c r="A2116" s="167"/>
+      <c r="B2116" s="163"/>
+      <c r="C2116" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D2116" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2116" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2116" s="108">
+      <c r="D2116" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2116" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2116" s="106">
         <v>29</v>
       </c>
     </row>
     <row r="2117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2117" s="104"/>
-      <c r="B2117" s="105"/>
-      <c r="C2117" s="106" t="s">
+      <c r="A2117" s="167"/>
+      <c r="B2117" s="163"/>
+      <c r="C2117" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D2117" s="106" t="s">
+      <c r="D2117" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2117" s="107">
+      <c r="E2117" s="105">
         <v>105000</v>
       </c>
-      <c r="F2117" s="108">
+      <c r="F2117" s="106">
         <v>16</v>
       </c>
     </row>
     <row r="2118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2118" s="104"/>
-      <c r="B2118" s="105"/>
-      <c r="C2118" s="106" t="s">
+      <c r="A2118" s="167"/>
+      <c r="B2118" s="163"/>
+      <c r="C2118" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="D2118" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2118" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2118" s="108">
+      <c r="D2118" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2118" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2118" s="106">
         <v>42</v>
       </c>
     </row>
     <row r="2119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2119" s="104"/>
-      <c r="B2119" s="105"/>
-      <c r="C2119" s="106" t="s">
+      <c r="A2119" s="167"/>
+      <c r="B2119" s="163"/>
+      <c r="C2119" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D2119" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2119" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2119" s="108">
+      <c r="D2119" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2119" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2119" s="106">
         <v>37</v>
       </c>
     </row>
     <row r="2120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2120" s="104"/>
-      <c r="B2120" s="105"/>
-      <c r="C2120" s="106" t="s">
+      <c r="A2120" s="167"/>
+      <c r="B2120" s="163"/>
+      <c r="C2120" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="D2120" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2120" s="107">
+      <c r="D2120" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2120" s="105">
         <v>90000</v>
       </c>
-      <c r="F2120" s="108">
+      <c r="F2120" s="106">
         <v>17</v>
       </c>
     </row>
     <row r="2121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2121" s="104"/>
-      <c r="B2121" s="105"/>
-      <c r="C2121" s="106" t="s">
+      <c r="A2121" s="167"/>
+      <c r="B2121" s="163"/>
+      <c r="C2121" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D2121" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2121" s="107">
+      <c r="D2121" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2121" s="105">
         <v>108000</v>
       </c>
-      <c r="F2121" s="108">
+      <c r="F2121" s="106">
         <v>42</v>
       </c>
     </row>
     <row r="2122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2122" s="104"/>
-      <c r="B2122" s="105"/>
-      <c r="C2122" s="106" t="s">
+      <c r="A2122" s="167"/>
+      <c r="B2122" s="163"/>
+      <c r="C2122" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="D2122" s="106" t="s">
+      <c r="D2122" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2122" s="107">
+      <c r="E2122" s="105">
         <v>97000</v>
       </c>
-      <c r="F2122" s="108">
+      <c r="F2122" s="106">
         <v>26</v>
       </c>
     </row>
     <row r="2123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2123" s="104"/>
-      <c r="B2123" s="105"/>
-      <c r="C2123" s="106" t="s">
+      <c r="A2123" s="167"/>
+      <c r="B2123" s="163"/>
+      <c r="C2123" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D2123" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2123" s="107">
+      <c r="D2123" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2123" s="105">
         <v>119000</v>
       </c>
-      <c r="F2123" s="108">
+      <c r="F2123" s="106">
         <v>30</v>
       </c>
     </row>
     <row r="2124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2124" s="104"/>
-      <c r="B2124" s="105"/>
-      <c r="C2124" s="106" t="s">
+      <c r="A2124" s="167"/>
+      <c r="B2124" s="163"/>
+      <c r="C2124" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="D2124" s="106" t="s">
+      <c r="D2124" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2124" s="107">
+      <c r="E2124" s="105">
         <v>105000</v>
       </c>
-      <c r="F2124" s="108">
+      <c r="F2124" s="106">
         <v>32</v>
       </c>
     </row>
     <row r="2125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2125" s="104"/>
-      <c r="B2125" s="105"/>
-      <c r="C2125" s="106" t="s">
+      <c r="A2125" s="167"/>
+      <c r="B2125" s="163"/>
+      <c r="C2125" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D2125" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2125" s="107">
+      <c r="D2125" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2125" s="105">
         <v>90000</v>
       </c>
-      <c r="F2125" s="108">
+      <c r="F2125" s="106">
         <v>12</v>
       </c>
     </row>
     <row r="2126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2126" s="104"/>
-      <c r="B2126" s="105"/>
-      <c r="C2126" s="106" t="s">
+      <c r="A2126" s="167"/>
+      <c r="B2126" s="163"/>
+      <c r="C2126" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="D2126" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2126" s="107">
+      <c r="D2126" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2126" s="105">
         <v>165000</v>
       </c>
-      <c r="F2126" s="108">
+      <c r="F2126" s="106">
         <v>28</v>
       </c>
     </row>
     <row r="2127" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2127" s="109"/>
-      <c r="B2127" s="110"/>
-      <c r="C2127" s="106" t="s">
+      <c r="A2127" s="177"/>
+      <c r="B2127" s="176"/>
+      <c r="C2127" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="D2127" s="106" t="s">
+      <c r="D2127" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2127" s="107">
+      <c r="E2127" s="105">
         <v>90000</v>
       </c>
-      <c r="F2127" s="108">
+      <c r="F2127" s="106">
         <v>21</v>
       </c>
     </row>
     <row r="2128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2128" s="113">
+      <c r="A2128" s="166">
         <v>45968</v>
       </c>
-      <c r="B2128" s="114" t="s">
+      <c r="B2128" s="174" t="s">
         <v>21</v>
       </c>
-      <c r="C2128" s="106" t="s">
+      <c r="C2128" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2128" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2128" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2128" s="108">
+      <c r="D2128" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2128" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2128" s="106">
         <v>35</v>
       </c>
     </row>
     <row r="2129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2129" s="104"/>
-      <c r="B2129" s="105"/>
-      <c r="C2129" s="106" t="s">
+      <c r="A2129" s="167"/>
+      <c r="B2129" s="163"/>
+      <c r="C2129" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2129" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2129" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2129" s="108">
+      <c r="D2129" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2129" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2129" s="106">
         <v>21</v>
       </c>
     </row>
     <row r="2130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2130" s="104"/>
-      <c r="B2130" s="105"/>
-      <c r="C2130" s="106" t="s">
+      <c r="A2130" s="167"/>
+      <c r="B2130" s="163"/>
+      <c r="C2130" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D2130" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2130" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2130" s="108">
+      <c r="D2130" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2130" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2130" s="106">
         <v>32</v>
       </c>
     </row>
     <row r="2131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2131" s="104"/>
-      <c r="B2131" s="105"/>
-      <c r="C2131" s="106" t="s">
+      <c r="A2131" s="167"/>
+      <c r="B2131" s="163"/>
+      <c r="C2131" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D2131" s="106" t="s">
+      <c r="D2131" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2131" s="107">
+      <c r="E2131" s="105">
         <v>105000</v>
       </c>
-      <c r="F2131" s="108">
+      <c r="F2131" s="106">
         <v>25</v>
       </c>
     </row>
     <row r="2132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2132" s="104"/>
-      <c r="B2132" s="105"/>
-      <c r="C2132" s="106" t="s">
+      <c r="A2132" s="167"/>
+      <c r="B2132" s="163"/>
+      <c r="C2132" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="D2132" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2132" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2132" s="108">
+      <c r="D2132" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2132" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2132" s="106">
         <v>40</v>
       </c>
     </row>
     <row r="2133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2133" s="104"/>
-      <c r="B2133" s="105"/>
-      <c r="C2133" s="106" t="s">
+      <c r="A2133" s="167"/>
+      <c r="B2133" s="163"/>
+      <c r="C2133" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D2133" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2133" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2133" s="108">
+      <c r="D2133" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2133" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2133" s="106">
         <v>27</v>
       </c>
     </row>
     <row r="2134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2134" s="104"/>
-      <c r="B2134" s="105"/>
-      <c r="C2134" s="106" t="s">
+      <c r="A2134" s="167"/>
+      <c r="B2134" s="163"/>
+      <c r="C2134" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="D2134" s="106" t="s">
+      <c r="D2134" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2134" s="107">
+      <c r="E2134" s="105">
         <v>105000</v>
       </c>
-      <c r="F2134" s="108">
+      <c r="F2134" s="106">
         <v>24</v>
       </c>
     </row>
     <row r="2135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2135" s="104"/>
-      <c r="B2135" s="105"/>
-      <c r="C2135" s="106" t="s">
+      <c r="A2135" s="167"/>
+      <c r="B2135" s="163"/>
+      <c r="C2135" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D2135" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2135" s="107">
+      <c r="D2135" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2135" s="105">
         <v>101000</v>
       </c>
-      <c r="F2135" s="108">
+      <c r="F2135" s="106">
         <v>42</v>
       </c>
     </row>
     <row r="2136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2136" s="104"/>
-      <c r="B2136" s="105"/>
-      <c r="C2136" s="106" t="s">
+      <c r="A2136" s="167"/>
+      <c r="B2136" s="163"/>
+      <c r="C2136" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D2136" s="106" t="s">
+      <c r="D2136" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="E2136" s="107">
+      <c r="E2136" s="105">
         <v>90000</v>
       </c>
-      <c r="F2136" s="108">
+      <c r="F2136" s="106">
         <v>18</v>
       </c>
     </row>
     <row r="2137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2137" s="104"/>
-      <c r="B2137" s="105"/>
-      <c r="C2137" s="106" t="s">
+      <c r="A2137" s="167"/>
+      <c r="B2137" s="163"/>
+      <c r="C2137" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="D2137" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2137" s="107">
+      <c r="D2137" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2137" s="105">
         <v>108000</v>
       </c>
-      <c r="F2137" s="108">
+      <c r="F2137" s="106">
         <v>26</v>
       </c>
     </row>
     <row r="2138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2138" s="104"/>
-      <c r="B2138" s="105"/>
-      <c r="C2138" s="106" t="s">
+      <c r="A2138" s="167"/>
+      <c r="B2138" s="163"/>
+      <c r="C2138" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D2138" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2138" s="107">
+      <c r="D2138" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2138" s="105">
         <v>119000</v>
       </c>
-      <c r="F2138" s="108">
+      <c r="F2138" s="106">
         <v>31</v>
       </c>
     </row>
     <row r="2139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2139" s="104"/>
-      <c r="B2139" s="105"/>
-      <c r="C2139" s="106" t="s">
+      <c r="A2139" s="167"/>
+      <c r="B2139" s="163"/>
+      <c r="C2139" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="D2139" s="106" t="s">
+      <c r="D2139" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2139" s="107">
+      <c r="E2139" s="105">
         <v>105000</v>
       </c>
-      <c r="F2139" s="108">
+      <c r="F2139" s="106">
         <v>19</v>
       </c>
     </row>
     <row r="2140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2140" s="104"/>
-      <c r="B2140" s="105"/>
-      <c r="C2140" s="106" t="s">
+      <c r="A2140" s="167"/>
+      <c r="B2140" s="163"/>
+      <c r="C2140" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D2140" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2140" s="107">
+      <c r="D2140" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2140" s="105">
         <v>90000</v>
       </c>
-      <c r="F2140" s="108">
+      <c r="F2140" s="106">
         <v>14</v>
       </c>
     </row>
     <row r="2141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2141" s="104"/>
-      <c r="B2141" s="105"/>
-      <c r="C2141" s="106" t="s">
+      <c r="A2141" s="167"/>
+      <c r="B2141" s="163"/>
+      <c r="C2141" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="D2141" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2141" s="107">
+      <c r="D2141" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2141" s="105">
         <v>165000</v>
       </c>
-      <c r="F2141" s="108">
+      <c r="F2141" s="106">
         <v>32</v>
       </c>
     </row>
     <row r="2142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2142" s="104"/>
-      <c r="B2142" s="105"/>
-      <c r="C2142" s="106" t="s">
+      <c r="A2142" s="167"/>
+      <c r="B2142" s="163"/>
+      <c r="C2142" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="D2142" s="106" t="s">
+      <c r="D2142" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2142" s="107">
+      <c r="E2142" s="105">
         <v>78750</v>
       </c>
-      <c r="F2142" s="108">
+      <c r="F2142" s="106">
         <v>19</v>
       </c>
     </row>
     <row r="2143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2143" s="104"/>
-      <c r="B2143" s="105"/>
-      <c r="C2143" s="106" t="s">
+      <c r="A2143" s="167"/>
+      <c r="B2143" s="163"/>
+      <c r="C2143" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="D2143" s="106" t="s">
+      <c r="D2143" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2143" s="107">
+      <c r="E2143" s="105">
         <v>52500</v>
       </c>
-      <c r="F2143" s="108">
+      <c r="F2143" s="106">
         <v>18</v>
       </c>
     </row>
     <row r="2144" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2144" s="109"/>
-      <c r="B2144" s="110"/>
-      <c r="C2144" s="106" t="s">
+      <c r="A2144" s="177"/>
+      <c r="B2144" s="176"/>
+      <c r="C2144" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="D2144" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2144" s="107">
+      <c r="D2144" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2144" s="105">
         <v>45000</v>
       </c>
-      <c r="F2144" s="108">
+      <c r="F2144" s="106">
         <v>12</v>
       </c>
     </row>
     <row r="2145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2145" s="113">
+      <c r="A2145" s="166">
         <v>45969</v>
       </c>
-      <c r="B2145" s="114" t="s">
+      <c r="B2145" s="174" t="s">
         <v>21</v>
       </c>
-      <c r="C2145" s="106" t="s">
+      <c r="C2145" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2145" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2145" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2145" s="108">
+      <c r="D2145" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2145" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2145" s="106">
         <v>29</v>
       </c>
     </row>
     <row r="2146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2146" s="104"/>
-      <c r="B2146" s="105"/>
-      <c r="C2146" s="106" t="s">
+      <c r="A2146" s="167"/>
+      <c r="B2146" s="163"/>
+      <c r="C2146" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2146" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2146" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2146" s="108">
+      <c r="D2146" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2146" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2146" s="106">
         <v>18</v>
       </c>
     </row>
     <row r="2147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2147" s="104"/>
-      <c r="B2147" s="105"/>
-      <c r="C2147" s="106" t="s">
+      <c r="A2147" s="167"/>
+      <c r="B2147" s="163"/>
+      <c r="C2147" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D2147" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2147" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2147" s="108">
+      <c r="D2147" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2147" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2147" s="106">
         <v>30</v>
       </c>
     </row>
     <row r="2148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2148" s="104"/>
-      <c r="B2148" s="105"/>
-      <c r="C2148" s="106" t="s">
+      <c r="A2148" s="167"/>
+      <c r="B2148" s="163"/>
+      <c r="C2148" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D2148" s="106" t="s">
+      <c r="D2148" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2148" s="107">
+      <c r="E2148" s="105">
         <v>105000</v>
       </c>
-      <c r="F2148" s="108">
+      <c r="F2148" s="106">
         <v>20</v>
       </c>
     </row>
     <row r="2149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2149" s="104"/>
-      <c r="B2149" s="105"/>
-      <c r="C2149" s="106" t="s">
+      <c r="A2149" s="167"/>
+      <c r="B2149" s="163"/>
+      <c r="C2149" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="D2149" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2149" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2149" s="108">
+      <c r="D2149" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2149" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2149" s="106">
         <v>30</v>
       </c>
     </row>
     <row r="2150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2150" s="104"/>
-      <c r="B2150" s="105"/>
-      <c r="C2150" s="106" t="s">
+      <c r="A2150" s="167"/>
+      <c r="B2150" s="163"/>
+      <c r="C2150" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D2150" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2150" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2150" s="108">
+      <c r="D2150" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2150" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2150" s="106">
         <v>38</v>
       </c>
     </row>
     <row r="2151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2151" s="104"/>
-      <c r="B2151" s="105"/>
-      <c r="C2151" s="106" t="s">
+      <c r="A2151" s="167"/>
+      <c r="B2151" s="163"/>
+      <c r="C2151" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="D2151" s="106" t="s">
+      <c r="D2151" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2151" s="107">
+      <c r="E2151" s="105">
         <v>105000</v>
       </c>
-      <c r="F2151" s="108">
+      <c r="F2151" s="106">
         <v>24</v>
       </c>
     </row>
     <row r="2152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2152" s="104"/>
-      <c r="B2152" s="105"/>
-      <c r="C2152" s="106" t="s">
+      <c r="A2152" s="167"/>
+      <c r="B2152" s="163"/>
+      <c r="C2152" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D2152" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2152" s="107">
+      <c r="D2152" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2152" s="105">
         <v>101000</v>
       </c>
-      <c r="F2152" s="108">
+      <c r="F2152" s="106">
         <v>31</v>
       </c>
     </row>
     <row r="2153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2153" s="104"/>
-      <c r="B2153" s="105"/>
-      <c r="C2153" s="106" t="s">
+      <c r="A2153" s="167"/>
+      <c r="B2153" s="163"/>
+      <c r="C2153" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D2153" s="106" t="s">
+      <c r="D2153" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="E2153" s="107">
+      <c r="E2153" s="105">
         <v>90000</v>
       </c>
-      <c r="F2153" s="108">
+      <c r="F2153" s="106">
         <v>8</v>
       </c>
     </row>
     <row r="2154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2154" s="104"/>
-      <c r="B2154" s="105"/>
-      <c r="C2154" s="106" t="s">
+      <c r="A2154" s="167"/>
+      <c r="B2154" s="163"/>
+      <c r="C2154" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="D2154" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2154" s="107">
+      <c r="D2154" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2154" s="105">
         <v>108000</v>
       </c>
-      <c r="F2154" s="108">
+      <c r="F2154" s="106">
         <v>19</v>
       </c>
     </row>
     <row r="2155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2155" s="104"/>
-      <c r="B2155" s="105"/>
-      <c r="C2155" s="106" t="s">
+      <c r="A2155" s="167"/>
+      <c r="B2155" s="163"/>
+      <c r="C2155" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D2155" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2155" s="107">
+      <c r="D2155" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2155" s="105">
         <v>119000</v>
       </c>
-      <c r="F2155" s="108">
+      <c r="F2155" s="106">
         <v>24</v>
       </c>
     </row>
     <row r="2156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2156" s="104"/>
-      <c r="B2156" s="105"/>
-      <c r="C2156" s="106" t="s">
+      <c r="A2156" s="167"/>
+      <c r="B2156" s="163"/>
+      <c r="C2156" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="D2156" s="106" t="s">
+      <c r="D2156" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2156" s="107">
+      <c r="E2156" s="105">
         <v>105000</v>
       </c>
-      <c r="F2156" s="108">
+      <c r="F2156" s="106">
         <v>19</v>
       </c>
     </row>
     <row r="2157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2157" s="104"/>
-      <c r="B2157" s="105"/>
-      <c r="C2157" s="106" t="s">
+      <c r="A2157" s="167"/>
+      <c r="B2157" s="163"/>
+      <c r="C2157" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D2157" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2157" s="107">
+      <c r="D2157" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2157" s="105">
         <v>90000</v>
       </c>
-      <c r="F2157" s="108">
+      <c r="F2157" s="106">
         <v>15</v>
       </c>
     </row>
     <row r="2158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2158" s="104"/>
-      <c r="B2158" s="105"/>
-      <c r="C2158" s="106" t="s">
+      <c r="A2158" s="167"/>
+      <c r="B2158" s="163"/>
+      <c r="C2158" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="D2158" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2158" s="107">
+      <c r="D2158" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2158" s="105">
         <v>165000</v>
       </c>
-      <c r="F2158" s="108">
+      <c r="F2158" s="106">
         <v>35</v>
       </c>
     </row>
     <row r="2159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2159" s="104"/>
-      <c r="B2159" s="105"/>
-      <c r="C2159" s="106" t="s">
+      <c r="A2159" s="167"/>
+      <c r="B2159" s="163"/>
+      <c r="C2159" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="D2159" s="106" t="s">
+      <c r="D2159" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2159" s="107">
+      <c r="E2159" s="105">
         <v>78750</v>
       </c>
-      <c r="F2159" s="108">
+      <c r="F2159" s="106">
         <v>21</v>
       </c>
     </row>
     <row r="2160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2160" s="104"/>
-      <c r="B2160" s="105"/>
-      <c r="C2160" s="106" t="s">
+      <c r="A2160" s="167"/>
+      <c r="B2160" s="163"/>
+      <c r="C2160" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="D2160" s="106" t="s">
+      <c r="D2160" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2160" s="107">
+      <c r="E2160" s="105">
         <v>52500</v>
       </c>
-      <c r="F2160" s="108">
+      <c r="F2160" s="106">
         <v>25</v>
       </c>
     </row>
     <row r="2161" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2161" s="109"/>
-      <c r="B2161" s="110"/>
-      <c r="C2161" s="106" t="s">
+      <c r="A2161" s="177"/>
+      <c r="B2161" s="176"/>
+      <c r="C2161" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="D2161" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2161" s="107">
+      <c r="D2161" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2161" s="105">
         <v>45000</v>
       </c>
-      <c r="F2161" s="108">
+      <c r="F2161" s="106">
         <v>17</v>
       </c>
     </row>
     <row r="2162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2162" s="113">
+      <c r="A2162" s="166">
         <v>45970</v>
       </c>
-      <c r="B2162" s="114" t="s">
+      <c r="B2162" s="174" t="s">
         <v>21</v>
       </c>
-      <c r="C2162" s="106" t="s">
+      <c r="C2162" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2162" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2162" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2162" s="108">
+      <c r="D2162" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2162" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2162" s="106">
         <v>13</v>
       </c>
     </row>
     <row r="2163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2163" s="104"/>
-      <c r="B2163" s="105"/>
-      <c r="C2163" s="106" t="s">
+      <c r="A2163" s="167"/>
+      <c r="B2163" s="163"/>
+      <c r="C2163" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2163" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2163" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2163" s="108">
+      <c r="D2163" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2163" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2163" s="106">
         <v>6</v>
       </c>
     </row>
     <row r="2164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2164" s="104"/>
-      <c r="B2164" s="105"/>
-      <c r="C2164" s="106" t="s">
+      <c r="A2164" s="167"/>
+      <c r="B2164" s="163"/>
+      <c r="C2164" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D2164" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2164" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2164" s="108">
+      <c r="D2164" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2164" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2164" s="106">
         <v>20</v>
       </c>
     </row>
     <row r="2165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2165" s="104"/>
-      <c r="B2165" s="105"/>
-      <c r="C2165" s="106" t="s">
+      <c r="A2165" s="167"/>
+      <c r="B2165" s="163"/>
+      <c r="C2165" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D2165" s="106" t="s">
+      <c r="D2165" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2165" s="107">
+      <c r="E2165" s="105">
         <v>105000</v>
       </c>
-      <c r="F2165" s="108">
+      <c r="F2165" s="106">
         <v>5</v>
       </c>
     </row>
     <row r="2166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2166" s="104"/>
-      <c r="B2166" s="105"/>
-      <c r="C2166" s="106" t="s">
+      <c r="A2166" s="167"/>
+      <c r="B2166" s="163"/>
+      <c r="C2166" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="D2166" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2166" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2166" s="108">
+      <c r="D2166" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2166" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2166" s="106">
         <v>18</v>
       </c>
     </row>
     <row r="2167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2167" s="104"/>
-      <c r="B2167" s="105"/>
-      <c r="C2167" s="106" t="s">
+      <c r="A2167" s="167"/>
+      <c r="B2167" s="163"/>
+      <c r="C2167" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D2167" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2167" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2167" s="108">
+      <c r="D2167" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2167" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2167" s="106">
         <v>20</v>
       </c>
     </row>
     <row r="2168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2168" s="104"/>
-      <c r="B2168" s="105"/>
-      <c r="C2168" s="106" t="s">
+      <c r="A2168" s="167"/>
+      <c r="B2168" s="163"/>
+      <c r="C2168" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="D2168" s="106" t="s">
+      <c r="D2168" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2168" s="107">
+      <c r="E2168" s="105">
         <v>105000</v>
       </c>
-      <c r="F2168" s="108">
+      <c r="F2168" s="106">
         <v>15</v>
       </c>
     </row>
     <row r="2169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2169" s="104"/>
-      <c r="B2169" s="105"/>
-      <c r="C2169" s="106" t="s">
+      <c r="A2169" s="167"/>
+      <c r="B2169" s="163"/>
+      <c r="C2169" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D2169" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2169" s="107">
+      <c r="D2169" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2169" s="105">
         <v>101000</v>
       </c>
-      <c r="F2169" s="108">
+      <c r="F2169" s="106">
         <v>18</v>
       </c>
     </row>
     <row r="2170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2170" s="104"/>
-      <c r="B2170" s="105"/>
-      <c r="C2170" s="106" t="s">
+      <c r="A2170" s="167"/>
+      <c r="B2170" s="163"/>
+      <c r="C2170" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D2170" s="106" t="s">
+      <c r="D2170" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="E2170" s="107">
+      <c r="E2170" s="105">
         <v>90000</v>
       </c>
-      <c r="F2170" s="108">
+      <c r="F2170" s="106">
         <v>8</v>
       </c>
     </row>
     <row r="2171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2171" s="104"/>
-      <c r="B2171" s="105"/>
-      <c r="C2171" s="106" t="s">
+      <c r="A2171" s="167"/>
+      <c r="B2171" s="163"/>
+      <c r="C2171" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="D2171" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2171" s="107">
+      <c r="D2171" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2171" s="105">
         <v>108000</v>
       </c>
-      <c r="F2171" s="108">
+      <c r="F2171" s="106">
         <v>19</v>
       </c>
     </row>
     <row r="2172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2172" s="104"/>
-      <c r="B2172" s="105"/>
-      <c r="C2172" s="106" t="s">
+      <c r="A2172" s="167"/>
+      <c r="B2172" s="163"/>
+      <c r="C2172" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D2172" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2172" s="107">
+      <c r="D2172" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2172" s="105">
         <v>119000</v>
       </c>
-      <c r="F2172" s="108">
+      <c r="F2172" s="106">
         <v>17</v>
       </c>
     </row>
     <row r="2173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2173" s="104"/>
-      <c r="B2173" s="105"/>
-      <c r="C2173" s="106" t="s">
+      <c r="A2173" s="167"/>
+      <c r="B2173" s="163"/>
+      <c r="C2173" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="D2173" s="106" t="s">
+      <c r="D2173" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2173" s="107">
+      <c r="E2173" s="105">
         <v>105000</v>
       </c>
-      <c r="F2173" s="108">
+      <c r="F2173" s="106">
         <v>12</v>
       </c>
     </row>
     <row r="2174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2174" s="104"/>
-      <c r="B2174" s="105"/>
-      <c r="C2174" s="106" t="s">
+      <c r="A2174" s="167"/>
+      <c r="B2174" s="163"/>
+      <c r="C2174" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D2174" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2174" s="107">
+      <c r="D2174" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2174" s="105">
         <v>90000</v>
       </c>
-      <c r="F2174" s="108">
+      <c r="F2174" s="106">
         <v>8</v>
       </c>
     </row>
     <row r="2175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2175" s="104"/>
-      <c r="B2175" s="105"/>
-      <c r="C2175" s="106" t="s">
+      <c r="A2175" s="167"/>
+      <c r="B2175" s="163"/>
+      <c r="C2175" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="D2175" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2175" s="107">
+      <c r="D2175" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2175" s="105">
         <v>165000</v>
       </c>
-      <c r="F2175" s="108">
+      <c r="F2175" s="106">
         <v>21</v>
       </c>
     </row>
     <row r="2176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2176" s="104"/>
-      <c r="B2176" s="105"/>
-      <c r="C2176" s="106" t="s">
+      <c r="A2176" s="167"/>
+      <c r="B2176" s="163"/>
+      <c r="C2176" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="D2176" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2176" s="107">
+      <c r="D2176" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2176" s="105">
         <v>50000</v>
       </c>
-      <c r="F2176" s="108">
+      <c r="F2176" s="106">
         <v>7</v>
       </c>
     </row>
     <row r="2177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2177" s="111">
+      <c r="A2177" s="175">
         <v>45971</v>
       </c>
       <c r="B2177" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C2177" s="106" t="s">
+      <c r="C2177" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="D2177" s="106" t="s">
+      <c r="D2177" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2177" s="107">
+      <c r="E2177" s="105">
         <v>180000</v>
       </c>
-      <c r="F2177" s="108">
+      <c r="F2177" s="106">
         <v>17</v>
       </c>
     </row>
     <row r="2178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2178" s="105"/>
-      <c r="B2178" s="105" t="s">
+      <c r="A2178" s="163"/>
+      <c r="B2178" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="C2178" s="106" t="s">
+      <c r="C2178" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2178" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2178" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2178" s="108">
+      <c r="D2178" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2178" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2178" s="106">
         <v>39</v>
       </c>
     </row>
     <row r="2179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2179" s="105"/>
-      <c r="B2179" s="105"/>
-      <c r="C2179" s="106" t="s">
+      <c r="A2179" s="163"/>
+      <c r="B2179" s="163"/>
+      <c r="C2179" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2179" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2179" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2179" s="108">
+      <c r="D2179" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2179" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2179" s="106">
         <v>30</v>
       </c>
     </row>
     <row r="2180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2180" s="105"/>
-      <c r="B2180" s="105"/>
-      <c r="C2180" s="106" t="s">
+      <c r="A2180" s="163"/>
+      <c r="B2180" s="163"/>
+      <c r="C2180" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D2180" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2180" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2180" s="108">
+      <c r="D2180" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2180" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2180" s="106">
         <v>34</v>
       </c>
     </row>
     <row r="2181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2181" s="105"/>
-      <c r="B2181" s="105"/>
-      <c r="C2181" s="106" t="s">
+      <c r="A2181" s="163"/>
+      <c r="B2181" s="163"/>
+      <c r="C2181" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D2181" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2181" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2181" s="108">
+      <c r="D2181" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2181" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2181" s="106">
         <v>21</v>
       </c>
     </row>
     <row r="2182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2182" s="105"/>
-      <c r="B2182" s="105"/>
-      <c r="C2182" s="106" t="s">
+      <c r="A2182" s="163"/>
+      <c r="B2182" s="163"/>
+      <c r="C2182" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="D2182" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2182" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2182" s="108">
+      <c r="D2182" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2182" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2182" s="106">
         <v>43</v>
       </c>
     </row>
     <row r="2183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2183" s="105"/>
-      <c r="B2183" s="105"/>
-      <c r="C2183" s="106" t="s">
+      <c r="A2183" s="163"/>
+      <c r="B2183" s="163"/>
+      <c r="C2183" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D2183" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2183" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2183" s="108">
+      <c r="D2183" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2183" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2183" s="106">
         <v>45</v>
       </c>
     </row>
     <row r="2184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2184" s="105"/>
-      <c r="B2184" s="105"/>
-      <c r="C2184" s="106" t="s">
+      <c r="A2184" s="163"/>
+      <c r="B2184" s="163"/>
+      <c r="C2184" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D2184" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2184" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2184" s="108">
+      <c r="D2184" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2184" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2184" s="106">
         <v>15</v>
       </c>
     </row>
     <row r="2185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2185" s="105"/>
-      <c r="B2185" s="105"/>
-      <c r="C2185" s="106" t="s">
+      <c r="A2185" s="163"/>
+      <c r="B2185" s="163"/>
+      <c r="C2185" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D2185" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2185" s="107">
+      <c r="D2185" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2185" s="105">
         <v>101000</v>
       </c>
-      <c r="F2185" s="108">
+      <c r="F2185" s="106">
         <v>36</v>
       </c>
     </row>
     <row r="2186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2186" s="105"/>
-      <c r="B2186" s="105"/>
-      <c r="C2186" s="106" t="s">
+      <c r="A2186" s="163"/>
+      <c r="B2186" s="163"/>
+      <c r="C2186" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D2186" s="106" t="s">
+      <c r="D2186" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2186" s="107">
+      <c r="E2186" s="105">
         <v>95000</v>
       </c>
-      <c r="F2186" s="108">
+      <c r="F2186" s="106">
         <v>11</v>
       </c>
     </row>
     <row r="2187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2187" s="105"/>
-      <c r="B2187" s="105"/>
-      <c r="C2187" s="106" t="s">
+      <c r="A2187" s="163"/>
+      <c r="B2187" s="163"/>
+      <c r="C2187" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="D2187" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2187" s="107">
+      <c r="D2187" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2187" s="105">
         <v>108000</v>
       </c>
-      <c r="F2187" s="108">
+      <c r="F2187" s="106">
         <v>19</v>
       </c>
     </row>
     <row r="2188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2188" s="105"/>
-      <c r="B2188" s="105"/>
-      <c r="C2188" s="106" t="s">
+      <c r="A2188" s="163"/>
+      <c r="B2188" s="163"/>
+      <c r="C2188" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D2188" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2188" s="107">
+      <c r="D2188" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2188" s="105">
         <v>119000</v>
       </c>
-      <c r="F2188" s="108">
+      <c r="F2188" s="106">
         <v>30</v>
       </c>
     </row>
     <row r="2189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2189" s="105"/>
-      <c r="B2189" s="105"/>
-      <c r="C2189" s="106" t="s">
+      <c r="A2189" s="163"/>
+      <c r="B2189" s="163"/>
+      <c r="C2189" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D2189" s="106" t="s">
+      <c r="D2189" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="E2189" s="107">
+      <c r="E2189" s="105">
         <v>100000</v>
       </c>
-      <c r="F2189" s="108">
+      <c r="F2189" s="106">
         <v>15</v>
       </c>
     </row>
     <row r="2190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2190" s="105"/>
-      <c r="B2190" s="105"/>
-      <c r="C2190" s="106" t="s">
+      <c r="A2190" s="163"/>
+      <c r="B2190" s="163"/>
+      <c r="C2190" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="D2190" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2190" s="107">
+      <c r="D2190" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2190" s="105">
         <v>120000</v>
       </c>
-      <c r="F2190" s="108">
+      <c r="F2190" s="106">
         <v>21</v>
       </c>
     </row>
     <row r="2191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2191" s="105"/>
-      <c r="B2191" s="105"/>
-      <c r="C2191" s="106" t="s">
+      <c r="A2191" s="163"/>
+      <c r="B2191" s="163"/>
+      <c r="C2191" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D2191" s="106" t="s">
+      <c r="D2191" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2191" s="107">
+      <c r="E2191" s="105">
         <v>105000</v>
       </c>
-      <c r="F2191" s="108">
+      <c r="F2191" s="106">
         <v>12</v>
       </c>
     </row>
     <row r="2192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2192" s="105"/>
-      <c r="B2192" s="105"/>
-      <c r="C2192" s="106" t="s">
+      <c r="A2192" s="163"/>
+      <c r="B2192" s="163"/>
+      <c r="C2192" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="D2192" s="106" t="s">
+      <c r="D2192" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2192" s="107">
+      <c r="E2192" s="105">
         <v>102000</v>
       </c>
-      <c r="F2192" s="108">
+      <c r="F2192" s="106">
         <v>23</v>
       </c>
     </row>
     <row r="2193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2193" s="105"/>
-      <c r="B2193" s="105"/>
-      <c r="C2193" s="106" t="s">
+      <c r="A2193" s="163"/>
+      <c r="B2193" s="163"/>
+      <c r="C2193" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="D2193" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2193" s="107">
+      <c r="D2193" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2193" s="105">
         <v>165000</v>
       </c>
-      <c r="F2193" s="108">
+      <c r="F2193" s="106">
         <v>43</v>
       </c>
     </row>
     <row r="2194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2194" s="115"/>
-      <c r="B2194" s="116" t="s">
+      <c r="A2194" s="107"/>
+      <c r="B2194" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="C2194" s="106" t="s">
+      <c r="C2194" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="D2194" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2194" s="107">
+      <c r="D2194" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2194" s="105">
         <v>90000</v>
       </c>
-      <c r="F2194" s="108">
+      <c r="F2194" s="106">
         <v>17</v>
       </c>
     </row>
@@ -46075,1683 +46075,1683 @@
       <c r="B2195" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C2195" s="106" t="s">
+      <c r="C2195" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="D2195" s="106" t="s">
+      <c r="D2195" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2195" s="107">
+      <c r="E2195" s="105">
         <v>180000</v>
       </c>
-      <c r="F2195" s="108">
+      <c r="F2195" s="106">
         <v>17</v>
       </c>
     </row>
     <row r="2196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2196" s="51"/>
-      <c r="B2196" s="105" t="s">
+      <c r="B2196" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="C2196" s="106" t="s">
+      <c r="C2196" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2196" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2196" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2196" s="108">
+      <c r="D2196" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2196" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2196" s="106">
         <v>36</v>
       </c>
     </row>
     <row r="2197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2197" s="51"/>
-      <c r="B2197" s="105"/>
-      <c r="C2197" s="106" t="s">
+      <c r="B2197" s="163"/>
+      <c r="C2197" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2197" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2197" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2197" s="108">
+      <c r="D2197" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2197" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2197" s="106">
         <v>44</v>
       </c>
     </row>
     <row r="2198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2198" s="51"/>
-      <c r="B2198" s="105"/>
-      <c r="C2198" s="106" t="s">
+      <c r="B2198" s="163"/>
+      <c r="C2198" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D2198" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2198" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2198" s="108">
+      <c r="D2198" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2198" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2198" s="106">
         <v>43</v>
       </c>
     </row>
     <row r="2199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2199" s="51"/>
-      <c r="B2199" s="105"/>
-      <c r="C2199" s="106" t="s">
+      <c r="B2199" s="163"/>
+      <c r="C2199" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D2199" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2199" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2199" s="108">
+      <c r="D2199" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2199" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2199" s="106">
         <v>24</v>
       </c>
     </row>
     <row r="2200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2200" s="51"/>
-      <c r="B2200" s="105"/>
-      <c r="C2200" s="106" t="s">
+      <c r="B2200" s="163"/>
+      <c r="C2200" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="D2200" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2200" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2200" s="108">
+      <c r="D2200" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2200" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2200" s="106">
         <v>44</v>
       </c>
     </row>
     <row r="2201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2201" s="51"/>
-      <c r="B2201" s="105"/>
-      <c r="C2201" s="106" t="s">
+      <c r="B2201" s="163"/>
+      <c r="C2201" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D2201" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2201" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2201" s="108">
+      <c r="D2201" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2201" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2201" s="106">
         <v>42</v>
       </c>
     </row>
     <row r="2202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2202" s="51"/>
-      <c r="B2202" s="105"/>
-      <c r="C2202" s="106" t="s">
+      <c r="B2202" s="163"/>
+      <c r="C2202" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D2202" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2202" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2202" s="108">
+      <c r="D2202" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2202" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2202" s="106">
         <v>26</v>
       </c>
     </row>
     <row r="2203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2203" s="51"/>
-      <c r="B2203" s="105"/>
-      <c r="C2203" s="106" t="s">
+      <c r="B2203" s="163"/>
+      <c r="C2203" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D2203" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2203" s="107">
+      <c r="D2203" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2203" s="105">
         <v>101000</v>
       </c>
-      <c r="F2203" s="108">
+      <c r="F2203" s="106">
         <v>48</v>
       </c>
     </row>
     <row r="2204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2204" s="51"/>
-      <c r="B2204" s="105"/>
-      <c r="C2204" s="106" t="s">
+      <c r="B2204" s="163"/>
+      <c r="C2204" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D2204" s="106" t="s">
+      <c r="D2204" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2204" s="107">
+      <c r="E2204" s="105">
         <v>95000</v>
       </c>
-      <c r="F2204" s="108">
+      <c r="F2204" s="106">
         <v>11</v>
       </c>
     </row>
     <row r="2205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2205" s="51"/>
-      <c r="B2205" s="105"/>
-      <c r="C2205" s="106" t="s">
+      <c r="B2205" s="163"/>
+      <c r="C2205" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="D2205" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2205" s="107">
+      <c r="D2205" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2205" s="105">
         <v>108000</v>
       </c>
-      <c r="F2205" s="108">
+      <c r="F2205" s="106">
         <v>30</v>
       </c>
     </row>
     <row r="2206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2206" s="51"/>
-      <c r="B2206" s="105"/>
-      <c r="C2206" s="106" t="s">
+      <c r="B2206" s="163"/>
+      <c r="C2206" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D2206" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2206" s="107">
+      <c r="D2206" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2206" s="105">
         <v>119000</v>
       </c>
-      <c r="F2206" s="108">
+      <c r="F2206" s="106">
         <v>30</v>
       </c>
     </row>
     <row r="2207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2207" s="51"/>
-      <c r="B2207" s="105"/>
-      <c r="C2207" s="106" t="s">
+      <c r="B2207" s="163"/>
+      <c r="C2207" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D2207" s="106" t="s">
+      <c r="D2207" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="E2207" s="107">
+      <c r="E2207" s="105">
         <v>100000</v>
       </c>
-      <c r="F2207" s="108">
+      <c r="F2207" s="106">
         <v>16</v>
       </c>
     </row>
     <row r="2208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2208" s="51"/>
-      <c r="B2208" s="105"/>
-      <c r="C2208" s="106" t="s">
+      <c r="B2208" s="163"/>
+      <c r="C2208" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="D2208" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2208" s="107">
+      <c r="D2208" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2208" s="105">
         <v>120000</v>
       </c>
-      <c r="F2208" s="108">
+      <c r="F2208" s="106">
         <v>33</v>
       </c>
     </row>
     <row r="2209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2209" s="51"/>
-      <c r="B2209" s="105"/>
-      <c r="C2209" s="106" t="s">
+      <c r="B2209" s="163"/>
+      <c r="C2209" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D2209" s="106" t="s">
+      <c r="D2209" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2209" s="107">
+      <c r="E2209" s="105">
         <v>105000</v>
       </c>
-      <c r="F2209" s="108">
+      <c r="F2209" s="106">
         <v>21</v>
       </c>
     </row>
     <row r="2210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2210" s="51"/>
-      <c r="B2210" s="105"/>
-      <c r="C2210" s="106" t="s">
+      <c r="B2210" s="163"/>
+      <c r="C2210" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="D2210" s="106" t="s">
+      <c r="D2210" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2210" s="107">
+      <c r="E2210" s="105">
         <v>102000</v>
       </c>
-      <c r="F2210" s="108">
+      <c r="F2210" s="106">
         <v>20</v>
       </c>
     </row>
     <row r="2211" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2211" s="60"/>
-      <c r="B2211" s="110"/>
-      <c r="C2211" s="106" t="s">
+      <c r="B2211" s="176"/>
+      <c r="C2211" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="D2211" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2211" s="107">
+      <c r="D2211" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2211" s="105">
         <v>165000</v>
       </c>
-      <c r="F2211" s="108">
+      <c r="F2211" s="106">
         <v>43</v>
       </c>
     </row>
     <row r="2212" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2212" s="113">
+      <c r="A2212" s="166">
         <v>46003</v>
       </c>
-      <c r="B2212" s="116" t="s">
+      <c r="B2212" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="C2212" s="106" t="s">
+      <c r="C2212" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="D2212" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2212" s="107">
+      <c r="D2212" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2212" s="105">
         <v>90000</v>
       </c>
-      <c r="F2212" s="108">
+      <c r="F2212" s="106">
         <v>16</v>
       </c>
     </row>
     <row r="2213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2213" s="104"/>
+      <c r="A2213" s="167"/>
       <c r="B2213" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C2213" s="106" t="s">
+      <c r="C2213" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="D2213" s="106" t="s">
+      <c r="D2213" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2213" s="107">
+      <c r="E2213" s="105">
         <v>180000</v>
       </c>
-      <c r="F2213" s="108">
+      <c r="F2213" s="106">
         <v>18</v>
       </c>
     </row>
     <row r="2214" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2214" s="104"/>
-      <c r="B2214" s="117" t="s">
+      <c r="A2214" s="167"/>
+      <c r="B2214" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="C2214" s="106" t="s">
+      <c r="C2214" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2214" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2214" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2214" s="108">
+      <c r="D2214" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2214" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2214" s="106">
         <v>33</v>
       </c>
     </row>
     <row r="2215" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2215" s="104"/>
-      <c r="B2215" s="118"/>
-      <c r="C2215" s="106" t="s">
+      <c r="A2215" s="167"/>
+      <c r="B2215" s="170"/>
+      <c r="C2215" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2215" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2215" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2215" s="108">
+      <c r="D2215" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2215" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2215" s="106">
         <v>38</v>
       </c>
     </row>
     <row r="2216" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2216" s="104"/>
-      <c r="B2216" s="118"/>
-      <c r="C2216" s="106" t="s">
+      <c r="A2216" s="167"/>
+      <c r="B2216" s="170"/>
+      <c r="C2216" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D2216" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2216" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2216" s="108">
+      <c r="D2216" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2216" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2216" s="106">
         <v>44</v>
       </c>
     </row>
     <row r="2217" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2217" s="104"/>
-      <c r="B2217" s="118"/>
-      <c r="C2217" s="106" t="s">
+      <c r="A2217" s="167"/>
+      <c r="B2217" s="170"/>
+      <c r="C2217" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D2217" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2217" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2217" s="108">
+      <c r="D2217" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2217" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2217" s="106">
         <v>13</v>
       </c>
     </row>
     <row r="2218" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2218" s="104"/>
-      <c r="B2218" s="118"/>
-      <c r="C2218" s="106" t="s">
+      <c r="A2218" s="167"/>
+      <c r="B2218" s="170"/>
+      <c r="C2218" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="D2218" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2218" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2218" s="108">
+      <c r="D2218" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2218" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2218" s="106">
         <v>42</v>
       </c>
     </row>
     <row r="2219" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2219" s="104"/>
-      <c r="B2219" s="118"/>
-      <c r="C2219" s="106" t="s">
+      <c r="A2219" s="167"/>
+      <c r="B2219" s="170"/>
+      <c r="C2219" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D2219" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2219" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2219" s="108">
+      <c r="D2219" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2219" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2219" s="106">
         <v>44</v>
       </c>
     </row>
     <row r="2220" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2220" s="104"/>
-      <c r="B2220" s="118"/>
-      <c r="C2220" s="106" t="s">
+      <c r="A2220" s="167"/>
+      <c r="B2220" s="170"/>
+      <c r="C2220" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D2220" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2220" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2220" s="108">
+      <c r="D2220" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2220" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2220" s="106">
         <v>43</v>
       </c>
     </row>
     <row r="2221" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2221" s="104"/>
-      <c r="B2221" s="118"/>
-      <c r="C2221" s="106" t="s">
+      <c r="A2221" s="167"/>
+      <c r="B2221" s="170"/>
+      <c r="C2221" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D2221" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2221" s="107">
+      <c r="D2221" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2221" s="105">
         <v>101000</v>
       </c>
-      <c r="F2221" s="108">
+      <c r="F2221" s="106">
         <v>39</v>
       </c>
     </row>
     <row r="2222" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2222" s="104"/>
-      <c r="B2222" s="118"/>
-      <c r="C2222" s="106" t="s">
+      <c r="A2222" s="167"/>
+      <c r="B2222" s="170"/>
+      <c r="C2222" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D2222" s="106" t="s">
+      <c r="D2222" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2222" s="107">
+      <c r="E2222" s="105">
         <v>95000</v>
       </c>
-      <c r="F2222" s="108">
+      <c r="F2222" s="106">
         <v>29</v>
       </c>
     </row>
     <row r="2223" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2223" s="104"/>
-      <c r="B2223" s="118"/>
-      <c r="C2223" s="106" t="s">
+      <c r="A2223" s="167"/>
+      <c r="B2223" s="170"/>
+      <c r="C2223" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="D2223" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2223" s="107">
+      <c r="D2223" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2223" s="105">
         <v>108000</v>
       </c>
-      <c r="F2223" s="108">
+      <c r="F2223" s="106">
         <v>33</v>
       </c>
     </row>
     <row r="2224" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2224" s="104"/>
-      <c r="B2224" s="118"/>
-      <c r="C2224" s="106" t="s">
+      <c r="A2224" s="167"/>
+      <c r="B2224" s="170"/>
+      <c r="C2224" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D2224" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2224" s="107">
+      <c r="D2224" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2224" s="105">
         <v>119000</v>
       </c>
-      <c r="F2224" s="108">
+      <c r="F2224" s="106">
         <v>31</v>
       </c>
     </row>
     <row r="2225" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2225" s="104"/>
-      <c r="B2225" s="118"/>
-      <c r="C2225" s="106" t="s">
+      <c r="A2225" s="167"/>
+      <c r="B2225" s="170"/>
+      <c r="C2225" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D2225" s="106" t="s">
+      <c r="D2225" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="E2225" s="107">
+      <c r="E2225" s="105">
         <v>100000</v>
       </c>
-      <c r="F2225" s="108">
+      <c r="F2225" s="106">
         <v>17</v>
       </c>
     </row>
     <row r="2226" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2226" s="104"/>
-      <c r="B2226" s="118"/>
-      <c r="C2226" s="106" t="s">
+      <c r="A2226" s="167"/>
+      <c r="B2226" s="170"/>
+      <c r="C2226" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="D2226" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2226" s="107">
+      <c r="D2226" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2226" s="105">
         <v>120000</v>
       </c>
-      <c r="F2226" s="108">
+      <c r="F2226" s="106">
         <v>33</v>
       </c>
     </row>
     <row r="2227" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2227" s="104"/>
-      <c r="B2227" s="118"/>
-      <c r="C2227" s="106" t="s">
+      <c r="A2227" s="167"/>
+      <c r="B2227" s="170"/>
+      <c r="C2227" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D2227" s="106" t="s">
+      <c r="D2227" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2227" s="107">
+      <c r="E2227" s="105">
         <v>105000</v>
       </c>
-      <c r="F2227" s="108">
+      <c r="F2227" s="106">
         <v>19</v>
       </c>
     </row>
     <row r="2228" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2228" s="104"/>
-      <c r="B2228" s="118"/>
-      <c r="C2228" s="106" t="s">
+      <c r="A2228" s="167"/>
+      <c r="B2228" s="170"/>
+      <c r="C2228" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="D2228" s="106" t="s">
+      <c r="D2228" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2228" s="107">
+      <c r="E2228" s="105">
         <v>102000</v>
       </c>
-      <c r="F2228" s="108">
+      <c r="F2228" s="106">
         <v>21</v>
       </c>
     </row>
     <row r="2229" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2229" s="104"/>
-      <c r="B2229" s="118"/>
-      <c r="C2229" s="106" t="s">
+      <c r="A2229" s="167"/>
+      <c r="B2229" s="170"/>
+      <c r="C2229" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="D2229" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2229" s="107">
+      <c r="D2229" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2229" s="105">
         <v>165000</v>
       </c>
-      <c r="F2229" s="108">
+      <c r="F2229" s="106">
         <v>45</v>
       </c>
     </row>
     <row r="2230" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2230" s="104"/>
-      <c r="B2230" s="118"/>
-      <c r="C2230" s="106" t="s">
+      <c r="A2230" s="167"/>
+      <c r="B2230" s="170"/>
+      <c r="C2230" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="D2230" s="106" t="s">
+      <c r="D2230" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2230" s="107">
+      <c r="E2230" s="105">
         <v>78750</v>
       </c>
-      <c r="F2230" s="108">
+      <c r="F2230" s="106">
         <v>21</v>
       </c>
     </row>
     <row r="2231" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2231" s="104"/>
-      <c r="B2231" s="118"/>
-      <c r="C2231" s="106" t="s">
+      <c r="A2231" s="167"/>
+      <c r="B2231" s="170"/>
+      <c r="C2231" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="D2231" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2231" s="107">
+      <c r="D2231" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2231" s="105">
         <v>45000</v>
       </c>
-      <c r="F2231" s="108">
+      <c r="F2231" s="106">
         <v>8</v>
       </c>
     </row>
     <row r="2232" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2232" s="119"/>
-      <c r="B2232" s="120"/>
-      <c r="C2232" s="106" t="s">
+      <c r="A2232" s="168"/>
+      <c r="B2232" s="171"/>
+      <c r="C2232" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="D2232" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2232" s="107">
+      <c r="D2232" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2232" s="105">
         <v>45000</v>
       </c>
-      <c r="F2232" s="108">
+      <c r="F2232" s="106">
         <v>8</v>
       </c>
     </row>
     <row r="2233" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2233" s="121">
+      <c r="A2233" s="160">
         <v>45974</v>
       </c>
-      <c r="B2233" s="116" t="s">
+      <c r="B2233" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="C2233" s="106" t="s">
+      <c r="C2233" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="D2233" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2233" s="107">
+      <c r="D2233" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2233" s="105">
         <v>90000</v>
       </c>
-      <c r="F2233" s="108">
+      <c r="F2233" s="106">
         <v>10</v>
       </c>
     </row>
     <row r="2234" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2234" s="122"/>
+      <c r="A2234" s="161"/>
       <c r="B2234" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C2234" s="106" t="s">
+      <c r="C2234" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="D2234" s="106" t="s">
+      <c r="D2234" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2234" s="107">
+      <c r="E2234" s="105">
         <v>180000</v>
       </c>
-      <c r="F2234" s="108">
+      <c r="F2234" s="106">
         <v>19</v>
       </c>
     </row>
     <row r="2235" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2235" s="122"/>
-      <c r="B2235" s="112" t="s">
+      <c r="A2235" s="161"/>
+      <c r="B2235" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="C2235" s="106" t="s">
+      <c r="C2235" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2235" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2235" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2235" s="108">
+      <c r="D2235" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2235" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2235" s="106">
         <v>30</v>
       </c>
     </row>
     <row r="2236" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2236" s="122"/>
-      <c r="B2236" s="105"/>
-      <c r="C2236" s="106" t="s">
+      <c r="A2236" s="161"/>
+      <c r="B2236" s="163"/>
+      <c r="C2236" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2236" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2236" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2236" s="108">
+      <c r="D2236" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2236" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2236" s="106">
         <v>38</v>
       </c>
     </row>
     <row r="2237" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2237" s="122"/>
-      <c r="B2237" s="105"/>
-      <c r="C2237" s="106" t="s">
+      <c r="A2237" s="161"/>
+      <c r="B2237" s="163"/>
+      <c r="C2237" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D2237" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2237" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2237" s="108">
+      <c r="D2237" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2237" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2237" s="106">
         <v>24</v>
       </c>
     </row>
     <row r="2238" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2238" s="122"/>
-      <c r="B2238" s="105"/>
-      <c r="C2238" s="106" t="s">
+      <c r="A2238" s="161"/>
+      <c r="B2238" s="163"/>
+      <c r="C2238" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D2238" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2238" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2238" s="108">
+      <c r="D2238" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2238" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2238" s="106">
         <v>35</v>
       </c>
     </row>
     <row r="2239" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2239" s="122"/>
-      <c r="B2239" s="105"/>
-      <c r="C2239" s="106" t="s">
+      <c r="A2239" s="161"/>
+      <c r="B2239" s="163"/>
+      <c r="C2239" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="D2239" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2239" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2239" s="108">
+      <c r="D2239" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2239" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2239" s="106">
         <v>42</v>
       </c>
     </row>
     <row r="2240" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2240" s="122"/>
-      <c r="B2240" s="105"/>
-      <c r="C2240" s="106" t="s">
+      <c r="A2240" s="161"/>
+      <c r="B2240" s="163"/>
+      <c r="C2240" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D2240" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2240" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2240" s="108">
+      <c r="D2240" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2240" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2240" s="106">
         <v>39</v>
       </c>
     </row>
     <row r="2241" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2241" s="122"/>
-      <c r="B2241" s="105"/>
-      <c r="C2241" s="106" t="s">
+      <c r="A2241" s="161"/>
+      <c r="B2241" s="163"/>
+      <c r="C2241" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D2241" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2241" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2241" s="108">
+      <c r="D2241" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2241" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2241" s="106">
         <v>43</v>
       </c>
     </row>
     <row r="2242" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2242" s="122"/>
-      <c r="B2242" s="105"/>
-      <c r="C2242" s="106" t="s">
+      <c r="A2242" s="161"/>
+      <c r="B2242" s="163"/>
+      <c r="C2242" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D2242" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2242" s="107">
+      <c r="D2242" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2242" s="105">
         <v>101000</v>
       </c>
-      <c r="F2242" s="108">
+      <c r="F2242" s="106">
         <v>45</v>
       </c>
     </row>
     <row r="2243" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2243" s="122"/>
-      <c r="B2243" s="105"/>
-      <c r="C2243" s="106" t="s">
+      <c r="A2243" s="161"/>
+      <c r="B2243" s="163"/>
+      <c r="C2243" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D2243" s="106" t="s">
+      <c r="D2243" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2243" s="107">
+      <c r="E2243" s="105">
         <v>95000</v>
       </c>
-      <c r="F2243" s="108">
+      <c r="F2243" s="106">
         <v>25</v>
       </c>
     </row>
     <row r="2244" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2244" s="122"/>
-      <c r="B2244" s="105"/>
-      <c r="C2244" s="106" t="s">
+      <c r="A2244" s="161"/>
+      <c r="B2244" s="163"/>
+      <c r="C2244" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="D2244" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2244" s="107">
+      <c r="D2244" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2244" s="105">
         <v>108000</v>
       </c>
-      <c r="F2244" s="108">
+      <c r="F2244" s="106">
         <v>31</v>
       </c>
     </row>
     <row r="2245" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2245" s="122"/>
-      <c r="B2245" s="105"/>
-      <c r="C2245" s="106" t="s">
+      <c r="A2245" s="161"/>
+      <c r="B2245" s="163"/>
+      <c r="C2245" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D2245" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2245" s="107">
+      <c r="D2245" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2245" s="105">
         <v>119000</v>
       </c>
-      <c r="F2245" s="108">
+      <c r="F2245" s="106">
         <v>40</v>
       </c>
     </row>
     <row r="2246" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2246" s="122"/>
-      <c r="B2246" s="105"/>
-      <c r="C2246" s="106" t="s">
+      <c r="A2246" s="161"/>
+      <c r="B2246" s="163"/>
+      <c r="C2246" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D2246" s="106" t="s">
+      <c r="D2246" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="E2246" s="107">
+      <c r="E2246" s="105">
         <v>100000</v>
       </c>
-      <c r="F2246" s="108">
+      <c r="F2246" s="106">
         <v>7</v>
       </c>
     </row>
     <row r="2247" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2247" s="122"/>
-      <c r="B2247" s="105"/>
-      <c r="C2247" s="106" t="s">
+      <c r="A2247" s="161"/>
+      <c r="B2247" s="163"/>
+      <c r="C2247" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="D2247" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2247" s="107">
+      <c r="D2247" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2247" s="105">
         <v>120000</v>
       </c>
-      <c r="F2247" s="108">
+      <c r="F2247" s="106">
         <v>34</v>
       </c>
     </row>
     <row r="2248" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2248" s="122"/>
-      <c r="B2248" s="105"/>
-      <c r="C2248" s="106" t="s">
+      <c r="A2248" s="161"/>
+      <c r="B2248" s="163"/>
+      <c r="C2248" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D2248" s="106" t="s">
+      <c r="D2248" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2248" s="107">
+      <c r="E2248" s="105">
         <v>105000</v>
       </c>
-      <c r="F2248" s="108">
+      <c r="F2248" s="106">
         <v>19</v>
       </c>
     </row>
     <row r="2249" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2249" s="122"/>
-      <c r="B2249" s="105"/>
-      <c r="C2249" s="106" t="s">
+      <c r="A2249" s="161"/>
+      <c r="B2249" s="163"/>
+      <c r="C2249" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="D2249" s="106" t="s">
+      <c r="D2249" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2249" s="107">
+      <c r="E2249" s="105">
         <v>102000</v>
       </c>
-      <c r="F2249" s="108">
+      <c r="F2249" s="106">
         <v>22</v>
       </c>
     </row>
     <row r="2250" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2250" s="122"/>
-      <c r="B2250" s="105"/>
-      <c r="C2250" s="106" t="s">
+      <c r="A2250" s="161"/>
+      <c r="B2250" s="163"/>
+      <c r="C2250" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="D2250" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2250" s="107">
+      <c r="D2250" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2250" s="105">
         <v>165000</v>
       </c>
-      <c r="F2250" s="108">
+      <c r="F2250" s="106">
         <v>45</v>
       </c>
     </row>
     <row r="2251" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2251" s="122"/>
-      <c r="B2251" s="105"/>
-      <c r="C2251" s="106" t="s">
+      <c r="A2251" s="161"/>
+      <c r="B2251" s="163"/>
+      <c r="C2251" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="D2251" s="106" t="s">
+      <c r="D2251" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2251" s="107">
+      <c r="E2251" s="105">
         <v>78750</v>
       </c>
-      <c r="F2251" s="108">
+      <c r="F2251" s="106">
         <v>20</v>
       </c>
     </row>
     <row r="2252" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2252" s="122"/>
-      <c r="B2252" s="105"/>
-      <c r="C2252" s="106" t="s">
+      <c r="A2252" s="161"/>
+      <c r="B2252" s="163"/>
+      <c r="C2252" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="D2252" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2252" s="107">
+      <c r="D2252" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2252" s="105">
         <v>45000</v>
       </c>
-      <c r="F2252" s="108">
+      <c r="F2252" s="106">
         <v>10</v>
       </c>
     </row>
     <row r="2253" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2253" s="123"/>
-      <c r="B2253" s="124"/>
-      <c r="C2253" s="106" t="s">
+      <c r="A2253" s="172"/>
+      <c r="B2253" s="173"/>
+      <c r="C2253" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="D2253" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2253" s="107">
+      <c r="D2253" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2253" s="105">
         <v>45000</v>
       </c>
-      <c r="F2253" s="108">
+      <c r="F2253" s="106">
         <v>8</v>
       </c>
     </row>
     <row r="2254" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2254" s="121">
+      <c r="A2254" s="160">
         <v>45975</v>
       </c>
-      <c r="B2254" s="116" t="s">
+      <c r="B2254" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="C2254" s="106" t="s">
+      <c r="C2254" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="D2254" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2254" s="107">
+      <c r="D2254" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2254" s="105">
         <v>90000</v>
       </c>
-      <c r="F2254" s="108">
+      <c r="F2254" s="106">
         <v>17</v>
       </c>
     </row>
     <row r="2255" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2255" s="122"/>
+      <c r="A2255" s="161"/>
       <c r="B2255" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C2255" s="106" t="s">
+      <c r="C2255" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="D2255" s="106" t="s">
+      <c r="D2255" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2255" s="107">
+      <c r="E2255" s="105">
         <v>180000</v>
       </c>
-      <c r="F2255" s="108">
+      <c r="F2255" s="106">
         <v>21</v>
       </c>
     </row>
     <row r="2256" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2256" s="122"/>
-      <c r="B2256" s="112" t="s">
+      <c r="A2256" s="161"/>
+      <c r="B2256" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="C2256" s="106" t="s">
+      <c r="C2256" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2256" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2256" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2256" s="108">
+      <c r="D2256" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2256" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2256" s="106">
         <v>44</v>
       </c>
     </row>
     <row r="2257" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2257" s="122"/>
-      <c r="B2257" s="105"/>
-      <c r="C2257" s="106" t="s">
+      <c r="A2257" s="161"/>
+      <c r="B2257" s="163"/>
+      <c r="C2257" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2257" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2257" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2257" s="108">
+      <c r="D2257" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2257" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2257" s="106">
         <v>28</v>
       </c>
     </row>
     <row r="2258" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2258" s="122"/>
-      <c r="B2258" s="105"/>
-      <c r="C2258" s="106" t="s">
+      <c r="A2258" s="161"/>
+      <c r="B2258" s="163"/>
+      <c r="C2258" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D2258" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2258" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2258" s="108">
+      <c r="D2258" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2258" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2258" s="106">
         <v>38</v>
       </c>
     </row>
     <row r="2259" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2259" s="122"/>
-      <c r="B2259" s="105"/>
-      <c r="C2259" s="106" t="s">
+      <c r="A2259" s="161"/>
+      <c r="B2259" s="163"/>
+      <c r="C2259" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D2259" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2259" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2259" s="108">
+      <c r="D2259" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2259" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2259" s="106">
         <v>27</v>
       </c>
     </row>
     <row r="2260" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2260" s="122"/>
-      <c r="B2260" s="105"/>
-      <c r="C2260" s="106" t="s">
+      <c r="A2260" s="161"/>
+      <c r="B2260" s="163"/>
+      <c r="C2260" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="D2260" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2260" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2260" s="108">
+      <c r="D2260" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2260" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2260" s="106">
         <v>44</v>
       </c>
     </row>
     <row r="2261" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2261" s="122"/>
-      <c r="B2261" s="105"/>
-      <c r="C2261" s="106" t="s">
+      <c r="A2261" s="161"/>
+      <c r="B2261" s="163"/>
+      <c r="C2261" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D2261" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2261" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2261" s="108">
+      <c r="D2261" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2261" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2261" s="106">
         <v>42</v>
       </c>
     </row>
     <row r="2262" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2262" s="122"/>
-      <c r="B2262" s="105"/>
-      <c r="C2262" s="106" t="s">
+      <c r="A2262" s="161"/>
+      <c r="B2262" s="163"/>
+      <c r="C2262" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D2262" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2262" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2262" s="108">
+      <c r="D2262" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2262" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2262" s="106">
         <v>44</v>
       </c>
     </row>
     <row r="2263" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2263" s="122"/>
-      <c r="B2263" s="105"/>
-      <c r="C2263" s="106" t="s">
+      <c r="A2263" s="161"/>
+      <c r="B2263" s="163"/>
+      <c r="C2263" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D2263" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2263" s="107">
+      <c r="D2263" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2263" s="105">
         <v>101000</v>
       </c>
-      <c r="F2263" s="108">
+      <c r="F2263" s="106">
         <v>35</v>
       </c>
     </row>
     <row r="2264" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2264" s="122"/>
-      <c r="B2264" s="105"/>
-      <c r="C2264" s="106" t="s">
+      <c r="A2264" s="161"/>
+      <c r="B2264" s="163"/>
+      <c r="C2264" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D2264" s="106" t="s">
+      <c r="D2264" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2264" s="107">
+      <c r="E2264" s="105">
         <v>95000</v>
       </c>
-      <c r="F2264" s="108">
+      <c r="F2264" s="106">
         <v>25</v>
       </c>
     </row>
     <row r="2265" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2265" s="122"/>
-      <c r="B2265" s="105"/>
-      <c r="C2265" s="106" t="s">
+      <c r="A2265" s="161"/>
+      <c r="B2265" s="163"/>
+      <c r="C2265" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="D2265" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2265" s="107">
+      <c r="D2265" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2265" s="105">
         <v>108000</v>
       </c>
-      <c r="F2265" s="108">
+      <c r="F2265" s="106">
         <v>33</v>
       </c>
     </row>
     <row r="2266" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2266" s="122"/>
-      <c r="B2266" s="105"/>
-      <c r="C2266" s="106" t="s">
+      <c r="A2266" s="161"/>
+      <c r="B2266" s="163"/>
+      <c r="C2266" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D2266" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2266" s="107">
+      <c r="D2266" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2266" s="105">
         <v>119000</v>
       </c>
-      <c r="F2266" s="108">
+      <c r="F2266" s="106">
         <v>30</v>
       </c>
     </row>
     <row r="2267" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2267" s="122"/>
-      <c r="B2267" s="105"/>
-      <c r="C2267" s="106" t="s">
+      <c r="A2267" s="161"/>
+      <c r="B2267" s="163"/>
+      <c r="C2267" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D2267" s="106" t="s">
+      <c r="D2267" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="E2267" s="107">
+      <c r="E2267" s="105">
         <v>100000</v>
       </c>
-      <c r="F2267" s="108">
+      <c r="F2267" s="106">
         <v>15</v>
       </c>
     </row>
     <row r="2268" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2268" s="122"/>
-      <c r="B2268" s="105"/>
-      <c r="C2268" s="106" t="s">
+      <c r="A2268" s="161"/>
+      <c r="B2268" s="163"/>
+      <c r="C2268" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="D2268" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2268" s="107">
+      <c r="D2268" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2268" s="105">
         <v>120000</v>
       </c>
-      <c r="F2268" s="108">
+      <c r="F2268" s="106">
         <v>34</v>
       </c>
     </row>
     <row r="2269" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2269" s="122"/>
-      <c r="B2269" s="105"/>
-      <c r="C2269" s="106" t="s">
+      <c r="A2269" s="161"/>
+      <c r="B2269" s="163"/>
+      <c r="C2269" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D2269" s="106" t="s">
+      <c r="D2269" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2269" s="107">
+      <c r="E2269" s="105">
         <v>105000</v>
       </c>
-      <c r="F2269" s="108">
+      <c r="F2269" s="106">
         <v>19</v>
       </c>
     </row>
     <row r="2270" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2270" s="122"/>
-      <c r="B2270" s="105"/>
-      <c r="C2270" s="106" t="s">
+      <c r="A2270" s="161"/>
+      <c r="B2270" s="163"/>
+      <c r="C2270" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="D2270" s="106" t="s">
+      <c r="D2270" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2270" s="107">
+      <c r="E2270" s="105">
         <v>102000</v>
       </c>
-      <c r="F2270" s="108">
+      <c r="F2270" s="106">
         <v>20</v>
       </c>
     </row>
     <row r="2271" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2271" s="122"/>
-      <c r="B2271" s="105"/>
-      <c r="C2271" s="106" t="s">
+      <c r="A2271" s="161"/>
+      <c r="B2271" s="163"/>
+      <c r="C2271" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="D2271" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2271" s="107">
+      <c r="D2271" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2271" s="105">
         <v>165000</v>
       </c>
-      <c r="F2271" s="108">
+      <c r="F2271" s="106">
         <v>43</v>
       </c>
     </row>
     <row r="2272" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2272" s="122"/>
-      <c r="B2272" s="105"/>
-      <c r="C2272" s="106" t="s">
+      <c r="A2272" s="161"/>
+      <c r="B2272" s="163"/>
+      <c r="C2272" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="D2272" s="106" t="s">
+      <c r="D2272" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2272" s="107">
+      <c r="E2272" s="105">
         <v>78750</v>
       </c>
-      <c r="F2272" s="108">
+      <c r="F2272" s="106">
         <v>20</v>
       </c>
     </row>
     <row r="2273" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2273" s="122"/>
-      <c r="B2273" s="105"/>
-      <c r="C2273" s="106" t="s">
+      <c r="A2273" s="161"/>
+      <c r="B2273" s="163"/>
+      <c r="C2273" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="D2273" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2273" s="107">
+      <c r="D2273" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2273" s="105">
         <v>45000</v>
       </c>
-      <c r="F2273" s="108">
+      <c r="F2273" s="106">
         <v>10</v>
       </c>
     </row>
     <row r="2274" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2274" s="123"/>
-      <c r="B2274" s="124"/>
-      <c r="C2274" s="106" t="s">
+      <c r="A2274" s="172"/>
+      <c r="B2274" s="173"/>
+      <c r="C2274" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="D2274" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2274" s="107">
+      <c r="D2274" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2274" s="105">
         <v>45000</v>
       </c>
-      <c r="F2274" s="108">
+      <c r="F2274" s="106">
         <v>8</v>
       </c>
     </row>
     <row r="2275" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2275" s="121">
+      <c r="A2275" s="160">
         <v>45976</v>
       </c>
-      <c r="B2275" s="116" t="s">
+      <c r="B2275" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="C2275" s="106" t="s">
+      <c r="C2275" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="D2275" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2275" s="107">
+      <c r="D2275" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2275" s="105">
         <v>90000</v>
       </c>
-      <c r="F2275" s="108">
+      <c r="F2275" s="106">
         <v>12</v>
       </c>
     </row>
     <row r="2276" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2276" s="122"/>
+      <c r="A2276" s="161"/>
       <c r="B2276" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C2276" s="106" t="s">
+      <c r="C2276" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="D2276" s="106" t="s">
+      <c r="D2276" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2276" s="107">
+      <c r="E2276" s="105">
         <v>180000</v>
       </c>
-      <c r="F2276" s="108">
+      <c r="F2276" s="106">
         <v>21</v>
       </c>
     </row>
     <row r="2277" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2277" s="122"/>
-      <c r="B2277" s="112" t="s">
+      <c r="A2277" s="161"/>
+      <c r="B2277" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="C2277" s="106" t="s">
+      <c r="C2277" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2277" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2277" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2277" s="108">
+      <c r="D2277" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2277" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2277" s="106">
         <v>25</v>
       </c>
     </row>
     <row r="2278" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2278" s="122"/>
-      <c r="B2278" s="105"/>
-      <c r="C2278" s="106" t="s">
+      <c r="A2278" s="161"/>
+      <c r="B2278" s="163"/>
+      <c r="C2278" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2278" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2278" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2278" s="108">
+      <c r="D2278" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2278" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2278" s="106">
         <v>33</v>
       </c>
     </row>
     <row r="2279" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2279" s="122"/>
-      <c r="B2279" s="105"/>
-      <c r="C2279" s="106" t="s">
+      <c r="A2279" s="161"/>
+      <c r="B2279" s="163"/>
+      <c r="C2279" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D2279" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2279" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2279" s="108">
+      <c r="D2279" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2279" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2279" s="106">
         <v>24</v>
       </c>
     </row>
     <row r="2280" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2280" s="122"/>
-      <c r="B2280" s="105"/>
-      <c r="C2280" s="106" t="s">
+      <c r="A2280" s="161"/>
+      <c r="B2280" s="163"/>
+      <c r="C2280" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D2280" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2280" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2280" s="108">
+      <c r="D2280" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2280" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2280" s="106">
         <v>37</v>
       </c>
     </row>
     <row r="2281" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2281" s="122"/>
-      <c r="B2281" s="105"/>
-      <c r="C2281" s="106" t="s">
+      <c r="A2281" s="161"/>
+      <c r="B2281" s="163"/>
+      <c r="C2281" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="D2281" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2281" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2281" s="108">
+      <c r="D2281" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2281" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2281" s="106">
         <v>43</v>
       </c>
     </row>
     <row r="2282" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2282" s="122"/>
-      <c r="B2282" s="105"/>
-      <c r="C2282" s="106" t="s">
+      <c r="A2282" s="161"/>
+      <c r="B2282" s="163"/>
+      <c r="C2282" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D2282" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2282" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2282" s="108">
+      <c r="D2282" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2282" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2282" s="106">
         <v>42</v>
       </c>
     </row>
     <row r="2283" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2283" s="122"/>
-      <c r="B2283" s="105"/>
-      <c r="C2283" s="106" t="s">
+      <c r="A2283" s="161"/>
+      <c r="B2283" s="163"/>
+      <c r="C2283" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D2283" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2283" s="107">
-        <v>126000</v>
-      </c>
-      <c r="F2283" s="108">
+      <c r="D2283" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2283" s="105">
+        <v>126000</v>
+      </c>
+      <c r="F2283" s="106">
         <v>44</v>
       </c>
     </row>
     <row r="2284" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2284" s="122"/>
-      <c r="B2284" s="105"/>
-      <c r="C2284" s="106" t="s">
+      <c r="A2284" s="161"/>
+      <c r="B2284" s="163"/>
+      <c r="C2284" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D2284" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2284" s="107">
+      <c r="D2284" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2284" s="105">
         <v>101000</v>
       </c>
-      <c r="F2284" s="108">
+      <c r="F2284" s="106">
         <v>33</v>
       </c>
     </row>
     <row r="2285" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2285" s="122"/>
-      <c r="B2285" s="105"/>
-      <c r="C2285" s="106" t="s">
+      <c r="A2285" s="161"/>
+      <c r="B2285" s="163"/>
+      <c r="C2285" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D2285" s="106" t="s">
+      <c r="D2285" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2285" s="107">
+      <c r="E2285" s="105">
         <v>95000</v>
       </c>
-      <c r="F2285" s="108">
+      <c r="F2285" s="106">
         <v>25</v>
       </c>
     </row>
     <row r="2286" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2286" s="122"/>
-      <c r="B2286" s="105"/>
-      <c r="C2286" s="106" t="s">
+      <c r="A2286" s="161"/>
+      <c r="B2286" s="163"/>
+      <c r="C2286" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="D2286" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2286" s="107">
+      <c r="D2286" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2286" s="105">
         <v>108000</v>
       </c>
-      <c r="F2286" s="108">
+      <c r="F2286" s="106">
         <v>33</v>
       </c>
     </row>
     <row r="2287" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2287" s="122"/>
-      <c r="B2287" s="105"/>
-      <c r="C2287" s="106" t="s">
+      <c r="A2287" s="161"/>
+      <c r="B2287" s="163"/>
+      <c r="C2287" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D2287" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2287" s="107">
+      <c r="D2287" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2287" s="105">
         <v>119000</v>
       </c>
-      <c r="F2287" s="108">
+      <c r="F2287" s="106">
         <v>30</v>
       </c>
     </row>
     <row r="2288" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2288" s="122"/>
-      <c r="B2288" s="105"/>
-      <c r="C2288" s="106" t="s">
+      <c r="A2288" s="161"/>
+      <c r="B2288" s="163"/>
+      <c r="C2288" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D2288" s="106" t="s">
+      <c r="D2288" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="E2288" s="107">
+      <c r="E2288" s="105">
         <v>100000</v>
       </c>
-      <c r="F2288" s="108">
+      <c r="F2288" s="106">
         <v>13</v>
       </c>
     </row>
     <row r="2289" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2289" s="122"/>
-      <c r="B2289" s="105"/>
-      <c r="C2289" s="106" t="s">
+      <c r="A2289" s="161"/>
+      <c r="B2289" s="163"/>
+      <c r="C2289" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="D2289" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2289" s="107">
+      <c r="D2289" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2289" s="105">
         <v>120000</v>
       </c>
-      <c r="F2289" s="108">
+      <c r="F2289" s="106">
         <v>30</v>
       </c>
     </row>
     <row r="2290" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2290" s="122"/>
-      <c r="B2290" s="105"/>
-      <c r="C2290" s="106" t="s">
+      <c r="A2290" s="161"/>
+      <c r="B2290" s="163"/>
+      <c r="C2290" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D2290" s="106" t="s">
+      <c r="D2290" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2290" s="107">
+      <c r="E2290" s="105">
         <v>105000</v>
       </c>
-      <c r="F2290" s="108">
+      <c r="F2290" s="106">
         <v>10</v>
       </c>
     </row>
     <row r="2291" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2291" s="122"/>
-      <c r="B2291" s="105"/>
-      <c r="C2291" s="106" t="s">
+      <c r="A2291" s="161"/>
+      <c r="B2291" s="163"/>
+      <c r="C2291" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="D2291" s="106" t="s">
+      <c r="D2291" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2291" s="107">
+      <c r="E2291" s="105">
         <v>102000</v>
       </c>
-      <c r="F2291" s="108">
+      <c r="F2291" s="106">
         <v>23</v>
       </c>
     </row>
     <row r="2292" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2292" s="122"/>
-      <c r="B2292" s="105"/>
-      <c r="C2292" s="106" t="s">
+      <c r="A2292" s="161"/>
+      <c r="B2292" s="163"/>
+      <c r="C2292" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="D2292" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2292" s="107">
+      <c r="D2292" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2292" s="105">
         <v>165000</v>
       </c>
-      <c r="F2292" s="108">
+      <c r="F2292" s="106">
         <v>43</v>
       </c>
     </row>
     <row r="2293" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2293" s="122"/>
-      <c r="B2293" s="105"/>
-      <c r="C2293" s="106" t="s">
+      <c r="A2293" s="161"/>
+      <c r="B2293" s="163"/>
+      <c r="C2293" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="D2293" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2293" s="107">
+      <c r="D2293" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2293" s="105">
         <v>67500</v>
       </c>
-      <c r="F2293" s="108">
+      <c r="F2293" s="106">
         <v>3</v>
       </c>
     </row>
     <row r="2294" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2294" s="122"/>
-      <c r="B2294" s="105"/>
-      <c r="C2294" s="106" t="s">
+      <c r="A2294" s="161"/>
+      <c r="B2294" s="163"/>
+      <c r="C2294" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="D2294" s="106" t="s">
+      <c r="D2294" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2294" s="107">
+      <c r="E2294" s="105">
         <v>78750</v>
       </c>
-      <c r="F2294" s="108">
+      <c r="F2294" s="106">
         <v>20</v>
       </c>
     </row>
     <row r="2295" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2295" s="122"/>
-      <c r="B2295" s="105"/>
-      <c r="C2295" s="106" t="s">
+      <c r="A2295" s="161"/>
+      <c r="B2295" s="163"/>
+      <c r="C2295" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="D2295" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2295" s="107">
+      <c r="D2295" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2295" s="105">
         <v>45000</v>
       </c>
-      <c r="F2295" s="108">
+      <c r="F2295" s="106">
         <v>10</v>
       </c>
     </row>
     <row r="2296" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2296" s="122"/>
-      <c r="B2296" s="105"/>
-      <c r="C2296" s="125" t="s">
+      <c r="A2296" s="161"/>
+      <c r="B2296" s="163"/>
+      <c r="C2296" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="D2296" s="125" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2296" s="126">
+      <c r="D2296" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2296" s="110">
         <v>45000</v>
       </c>
-      <c r="F2296" s="127">
+      <c r="F2296" s="111">
         <v>8</v>
       </c>
     </row>
     <row r="2297" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2297" s="128">
+      <c r="A2297" s="164">
         <v>45946</v>
       </c>
-      <c r="B2297" s="129" t="s">
+      <c r="B2297" s="165" t="s">
         <v>109</v>
       </c>
-      <c r="C2297" s="106" t="s">
+      <c r="C2297" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2297" s="106" t="s">
+      <c r="D2297" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2297" s="130">
+      <c r="E2297" s="112">
         <v>95000</v>
       </c>
       <c r="F2297" s="2">
@@ -47759,15 +47759,15 @@
       </c>
     </row>
     <row r="2298" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2298" s="128"/>
-      <c r="B2298" s="129"/>
-      <c r="C2298" s="106" t="s">
+      <c r="A2298" s="164"/>
+      <c r="B2298" s="165"/>
+      <c r="C2298" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D2298" s="106" t="s">
+      <c r="D2298" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2298" s="130">
+      <c r="E2298" s="112">
         <v>95000</v>
       </c>
       <c r="F2298" s="2">
@@ -47775,15 +47775,15 @@
       </c>
     </row>
     <row r="2299" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2299" s="128"/>
-      <c r="B2299" s="129"/>
-      <c r="C2299" s="106" t="s">
+      <c r="A2299" s="164"/>
+      <c r="B2299" s="165"/>
+      <c r="C2299" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="D2299" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2299" s="130">
+      <c r="D2299" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2299" s="112">
         <v>115000</v>
       </c>
       <c r="F2299" s="2">
@@ -47791,15 +47791,15 @@
       </c>
     </row>
     <row r="2300" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2300" s="128"/>
-      <c r="B2300" s="129"/>
-      <c r="C2300" s="106" t="s">
+      <c r="A2300" s="164"/>
+      <c r="B2300" s="165"/>
+      <c r="C2300" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="D2300" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2300" s="130">
+      <c r="D2300" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2300" s="112">
         <v>80000</v>
       </c>
       <c r="F2300" s="2">
@@ -47807,15 +47807,15 @@
       </c>
     </row>
     <row r="2301" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2301" s="128"/>
-      <c r="B2301" s="129"/>
-      <c r="C2301" s="106" t="s">
+      <c r="A2301" s="164"/>
+      <c r="B2301" s="165"/>
+      <c r="C2301" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D2301" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2301" s="130">
+      <c r="D2301" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2301" s="112">
         <v>92000</v>
       </c>
       <c r="F2301" s="2">
@@ -47823,15 +47823,15 @@
       </c>
     </row>
     <row r="2302" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2302" s="128"/>
-      <c r="B2302" s="129"/>
-      <c r="C2302" s="106" t="s">
+      <c r="A2302" s="164"/>
+      <c r="B2302" s="165"/>
+      <c r="C2302" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D2302" s="106" t="s">
+      <c r="D2302" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2302" s="130">
+      <c r="E2302" s="112">
         <v>98000</v>
       </c>
       <c r="F2302" s="2">
@@ -47839,15 +47839,15 @@
       </c>
     </row>
     <row r="2303" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2303" s="128"/>
-      <c r="B2303" s="129"/>
-      <c r="C2303" s="106" t="s">
+      <c r="A2303" s="164"/>
+      <c r="B2303" s="165"/>
+      <c r="C2303" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D2303" s="106" t="s">
+      <c r="D2303" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2303" s="130">
+      <c r="E2303" s="112">
         <v>142500</v>
       </c>
       <c r="F2303" s="2">
@@ -47855,19 +47855,19 @@
       </c>
     </row>
     <row r="2304" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2304" s="131">
+      <c r="A2304" s="158">
         <v>45947</v>
       </c>
-      <c r="B2304" s="132" t="s">
+      <c r="B2304" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="C2304" s="106" t="s">
+      <c r="C2304" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2304" s="106" t="s">
+      <c r="D2304" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2304" s="130">
+      <c r="E2304" s="112">
         <v>95000</v>
       </c>
       <c r="F2304" s="2">
@@ -47875,15 +47875,15 @@
       </c>
     </row>
     <row r="2305" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2305" s="131"/>
-      <c r="B2305" s="132"/>
-      <c r="C2305" s="106" t="s">
+      <c r="A2305" s="158"/>
+      <c r="B2305" s="159"/>
+      <c r="C2305" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D2305" s="106" t="s">
+      <c r="D2305" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2305" s="130">
+      <c r="E2305" s="112">
         <v>95000</v>
       </c>
       <c r="F2305" s="2">
@@ -47891,15 +47891,15 @@
       </c>
     </row>
     <row r="2306" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2306" s="131"/>
-      <c r="B2306" s="132"/>
-      <c r="C2306" s="106" t="s">
+      <c r="A2306" s="158"/>
+      <c r="B2306" s="159"/>
+      <c r="C2306" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="D2306" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2306" s="130">
+      <c r="D2306" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2306" s="112">
         <v>115000</v>
       </c>
       <c r="F2306" s="2">
@@ -47907,15 +47907,15 @@
       </c>
     </row>
     <row r="2307" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2307" s="131"/>
-      <c r="B2307" s="132"/>
-      <c r="C2307" s="106" t="s">
+      <c r="A2307" s="158"/>
+      <c r="B2307" s="159"/>
+      <c r="C2307" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="D2307" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2307" s="130">
+      <c r="D2307" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2307" s="112">
         <v>80000</v>
       </c>
       <c r="F2307" s="2">
@@ -47923,15 +47923,15 @@
       </c>
     </row>
     <row r="2308" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2308" s="131"/>
-      <c r="B2308" s="132"/>
-      <c r="C2308" s="106" t="s">
+      <c r="A2308" s="158"/>
+      <c r="B2308" s="159"/>
+      <c r="C2308" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D2308" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2308" s="130">
+      <c r="D2308" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2308" s="112">
         <v>92000</v>
       </c>
       <c r="F2308" s="2">
@@ -47939,15 +47939,15 @@
       </c>
     </row>
     <row r="2309" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2309" s="131"/>
-      <c r="B2309" s="132"/>
-      <c r="C2309" s="106" t="s">
+      <c r="A2309" s="158"/>
+      <c r="B2309" s="159"/>
+      <c r="C2309" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D2309" s="106" t="s">
+      <c r="D2309" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2309" s="130">
+      <c r="E2309" s="112">
         <v>98000</v>
       </c>
       <c r="F2309" s="2">
@@ -47955,15 +47955,15 @@
       </c>
     </row>
     <row r="2310" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2310" s="131"/>
-      <c r="B2310" s="132"/>
-      <c r="C2310" s="106" t="s">
+      <c r="A2310" s="158"/>
+      <c r="B2310" s="159"/>
+      <c r="C2310" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D2310" s="106" t="s">
+      <c r="D2310" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2310" s="130">
+      <c r="E2310" s="112">
         <v>142500</v>
       </c>
       <c r="F2310" s="2">
@@ -47971,10 +47971,10 @@
       </c>
     </row>
     <row r="2311" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2311" s="133">
+      <c r="A2311" s="114">
         <v>45948</v>
       </c>
-      <c r="B2311" s="134" t="s">
+      <c r="B2311" s="115" t="s">
         <v>109</v>
       </c>
       <c r="C2311" s="3" t="s">
@@ -47983,27 +47983,27 @@
       <c r="D2311" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2311" s="135">
+      <c r="E2311" s="116">
         <v>120000</v>
       </c>
-      <c r="F2311" s="136">
+      <c r="F2311" s="113">
         <v>5</v>
       </c>
     </row>
     <row r="2312" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2312" s="131">
+      <c r="A2312" s="158">
         <v>45950</v>
       </c>
-      <c r="B2312" s="132" t="s">
+      <c r="B2312" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="C2312" s="106" t="s">
+      <c r="C2312" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2312" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2312" s="130">
+      <c r="D2312" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2312" s="112">
         <v>105000</v>
       </c>
       <c r="F2312" s="2">
@@ -48011,15 +48011,15 @@
       </c>
     </row>
     <row r="2313" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2313" s="131"/>
-      <c r="B2313" s="132"/>
-      <c r="C2313" s="106" t="s">
+      <c r="A2313" s="158"/>
+      <c r="B2313" s="159"/>
+      <c r="C2313" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D2313" s="106" t="s">
+      <c r="D2313" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2313" s="130">
+      <c r="E2313" s="112">
         <v>95000</v>
       </c>
       <c r="F2313" s="2">
@@ -48027,15 +48027,15 @@
       </c>
     </row>
     <row r="2314" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2314" s="131"/>
-      <c r="B2314" s="132"/>
-      <c r="C2314" s="106" t="s">
+      <c r="A2314" s="158"/>
+      <c r="B2314" s="159"/>
+      <c r="C2314" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="D2314" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2314" s="130">
+      <c r="D2314" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2314" s="112">
         <v>115000</v>
       </c>
       <c r="F2314" s="2">
@@ -48043,15 +48043,15 @@
       </c>
     </row>
     <row r="2315" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2315" s="131"/>
-      <c r="B2315" s="132"/>
-      <c r="C2315" s="106" t="s">
+      <c r="A2315" s="158"/>
+      <c r="B2315" s="159"/>
+      <c r="C2315" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="D2315" s="106" t="s">
+      <c r="D2315" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2315" s="130">
+      <c r="E2315" s="112">
         <v>95000</v>
       </c>
       <c r="F2315" s="2">
@@ -48059,15 +48059,15 @@
       </c>
     </row>
     <row r="2316" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2316" s="131"/>
-      <c r="B2316" s="132"/>
-      <c r="C2316" s="106" t="s">
+      <c r="A2316" s="158"/>
+      <c r="B2316" s="159"/>
+      <c r="C2316" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D2316" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2316" s="130">
+      <c r="D2316" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2316" s="112">
         <v>92000</v>
       </c>
       <c r="F2316" s="2">
@@ -48075,15 +48075,15 @@
       </c>
     </row>
     <row r="2317" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2317" s="131"/>
-      <c r="B2317" s="132"/>
-      <c r="C2317" s="106" t="s">
+      <c r="A2317" s="158"/>
+      <c r="B2317" s="159"/>
+      <c r="C2317" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D2317" s="106" t="s">
+      <c r="D2317" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2317" s="130">
+      <c r="E2317" s="112">
         <v>98000</v>
       </c>
       <c r="F2317" s="2">
@@ -48091,15 +48091,15 @@
       </c>
     </row>
     <row r="2318" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2318" s="131"/>
-      <c r="B2318" s="132"/>
-      <c r="C2318" s="106" t="s">
+      <c r="A2318" s="158"/>
+      <c r="B2318" s="159"/>
+      <c r="C2318" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D2318" s="106" t="s">
+      <c r="D2318" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2318" s="130">
+      <c r="E2318" s="112">
         <v>142500</v>
       </c>
       <c r="F2318" s="2">
@@ -48107,19 +48107,19 @@
       </c>
     </row>
     <row r="2319" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2319" s="131">
+      <c r="A2319" s="158">
         <v>45951</v>
       </c>
-      <c r="B2319" s="132" t="s">
+      <c r="B2319" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="C2319" s="106" t="s">
+      <c r="C2319" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2319" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2319" s="130">
+      <c r="D2319" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2319" s="112">
         <v>115000</v>
       </c>
       <c r="F2319" s="2">
@@ -48127,15 +48127,15 @@
       </c>
     </row>
     <row r="2320" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2320" s="131"/>
-      <c r="B2320" s="132"/>
-      <c r="C2320" s="106" t="s">
+      <c r="A2320" s="158"/>
+      <c r="B2320" s="159"/>
+      <c r="C2320" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D2320" s="106" t="s">
+      <c r="D2320" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2320" s="130">
+      <c r="E2320" s="112">
         <v>95000</v>
       </c>
       <c r="F2320" s="2">
@@ -48143,15 +48143,15 @@
       </c>
     </row>
     <row r="2321" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2321" s="131"/>
-      <c r="B2321" s="132"/>
-      <c r="C2321" s="106" t="s">
+      <c r="A2321" s="158"/>
+      <c r="B2321" s="159"/>
+      <c r="C2321" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="D2321" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2321" s="130">
+      <c r="D2321" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2321" s="112">
         <v>115000</v>
       </c>
       <c r="F2321" s="2">
@@ -48159,15 +48159,15 @@
       </c>
     </row>
     <row r="2322" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2322" s="131"/>
-      <c r="B2322" s="132"/>
-      <c r="C2322" s="106" t="s">
+      <c r="A2322" s="158"/>
+      <c r="B2322" s="159"/>
+      <c r="C2322" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="D2322" s="106" t="s">
+      <c r="D2322" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2322" s="130">
+      <c r="E2322" s="112">
         <v>95000</v>
       </c>
       <c r="F2322" s="2">
@@ -48175,15 +48175,15 @@
       </c>
     </row>
     <row r="2323" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2323" s="131"/>
-      <c r="B2323" s="132"/>
-      <c r="C2323" s="106" t="s">
+      <c r="A2323" s="158"/>
+      <c r="B2323" s="159"/>
+      <c r="C2323" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D2323" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2323" s="130">
+      <c r="D2323" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2323" s="112">
         <v>92000</v>
       </c>
       <c r="F2323" s="2">
@@ -48191,15 +48191,15 @@
       </c>
     </row>
     <row r="2324" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2324" s="131"/>
-      <c r="B2324" s="132"/>
-      <c r="C2324" s="106" t="s">
+      <c r="A2324" s="158"/>
+      <c r="B2324" s="159"/>
+      <c r="C2324" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D2324" s="106" t="s">
+      <c r="D2324" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2324" s="130">
+      <c r="E2324" s="112">
         <v>98000</v>
       </c>
       <c r="F2324" s="2">
@@ -48207,15 +48207,15 @@
       </c>
     </row>
     <row r="2325" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2325" s="131"/>
-      <c r="B2325" s="132"/>
-      <c r="C2325" s="106" t="s">
+      <c r="A2325" s="158"/>
+      <c r="B2325" s="159"/>
+      <c r="C2325" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D2325" s="106" t="s">
+      <c r="D2325" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2325" s="130">
+      <c r="E2325" s="112">
         <v>142500</v>
       </c>
       <c r="F2325" s="2">
@@ -48223,10 +48223,10 @@
       </c>
     </row>
     <row r="2326" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2326" s="131">
+      <c r="A2326" s="158">
         <v>45952</v>
       </c>
-      <c r="B2326" s="132" t="s">
+      <c r="B2326" s="159" t="s">
         <v>111</v>
       </c>
       <c r="C2326" s="3" t="s">
@@ -48235,114 +48235,114 @@
       <c r="D2326" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2326" s="135">
+      <c r="E2326" s="116">
         <v>115000</v>
       </c>
-      <c r="F2326" s="136">
+      <c r="F2326" s="113">
         <v>30</v>
       </c>
     </row>
     <row r="2327" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2327" s="131"/>
-      <c r="B2327" s="132"/>
+      <c r="A2327" s="158"/>
+      <c r="B2327" s="159"/>
       <c r="C2327" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D2327" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2327" s="135">
+      <c r="E2327" s="116">
         <v>95000</v>
       </c>
-      <c r="F2327" s="136">
+      <c r="F2327" s="113">
         <v>19</v>
       </c>
     </row>
     <row r="2328" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2328" s="131"/>
-      <c r="B2328" s="132"/>
+      <c r="A2328" s="158"/>
+      <c r="B2328" s="159"/>
       <c r="C2328" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2328" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2328" s="135">
+      <c r="E2328" s="116">
         <v>115000</v>
       </c>
-      <c r="F2328" s="136">
+      <c r="F2328" s="113">
         <v>40</v>
       </c>
     </row>
     <row r="2329" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2329" s="131"/>
-      <c r="B2329" s="132"/>
+      <c r="A2329" s="158"/>
+      <c r="B2329" s="159"/>
       <c r="C2329" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D2329" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2329" s="135">
+      <c r="E2329" s="116">
         <v>95000</v>
       </c>
-      <c r="F2329" s="136">
+      <c r="F2329" s="113">
         <v>24</v>
       </c>
     </row>
     <row r="2330" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2330" s="131"/>
-      <c r="B2330" s="132"/>
+      <c r="A2330" s="158"/>
+      <c r="B2330" s="159"/>
       <c r="C2330" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2330" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2330" s="135">
+      <c r="E2330" s="116">
         <v>92000</v>
       </c>
-      <c r="F2330" s="136">
+      <c r="F2330" s="113">
         <v>31</v>
       </c>
     </row>
     <row r="2331" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2331" s="131"/>
-      <c r="B2331" s="132"/>
+      <c r="A2331" s="158"/>
+      <c r="B2331" s="159"/>
       <c r="C2331" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D2331" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2331" s="135">
+      <c r="E2331" s="116">
         <v>98000</v>
       </c>
-      <c r="F2331" s="136">
+      <c r="F2331" s="113">
         <v>15</v>
       </c>
     </row>
     <row r="2332" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2332" s="131"/>
-      <c r="B2332" s="132"/>
+      <c r="A2332" s="158"/>
+      <c r="B2332" s="159"/>
       <c r="C2332" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D2332" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2332" s="135">
+      <c r="E2332" s="116">
         <v>142500</v>
       </c>
-      <c r="F2332" s="136">
+      <c r="F2332" s="113">
         <v>20</v>
       </c>
     </row>
     <row r="2333" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2333" s="131">
+      <c r="A2333" s="158">
         <v>45953</v>
       </c>
-      <c r="B2333" s="132" t="s">
+      <c r="B2333" s="159" t="s">
         <v>111</v>
       </c>
       <c r="C2333" s="3" t="s">
@@ -48351,114 +48351,114 @@
       <c r="D2333" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2333" s="135">
+      <c r="E2333" s="116">
         <v>115000</v>
       </c>
-      <c r="F2333" s="136">
+      <c r="F2333" s="113">
         <v>30</v>
       </c>
     </row>
     <row r="2334" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2334" s="131"/>
-      <c r="B2334" s="132"/>
+      <c r="A2334" s="158"/>
+      <c r="B2334" s="159"/>
       <c r="C2334" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D2334" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2334" s="135">
+      <c r="E2334" s="116">
         <v>95000</v>
       </c>
-      <c r="F2334" s="136">
+      <c r="F2334" s="113">
         <v>20</v>
       </c>
     </row>
     <row r="2335" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2335" s="131"/>
-      <c r="B2335" s="132"/>
+      <c r="A2335" s="158"/>
+      <c r="B2335" s="159"/>
       <c r="C2335" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2335" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2335" s="135">
+      <c r="E2335" s="116">
         <v>115000</v>
       </c>
-      <c r="F2335" s="136">
+      <c r="F2335" s="113">
         <v>35</v>
       </c>
     </row>
     <row r="2336" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2336" s="131"/>
-      <c r="B2336" s="132"/>
+      <c r="A2336" s="158"/>
+      <c r="B2336" s="159"/>
       <c r="C2336" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D2336" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2336" s="135">
+      <c r="E2336" s="116">
         <v>95000</v>
       </c>
-      <c r="F2336" s="136">
+      <c r="F2336" s="113">
         <v>23</v>
       </c>
     </row>
     <row r="2337" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2337" s="131"/>
-      <c r="B2337" s="132"/>
+      <c r="A2337" s="158"/>
+      <c r="B2337" s="159"/>
       <c r="C2337" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2337" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2337" s="135">
+      <c r="E2337" s="116">
         <v>92000</v>
       </c>
-      <c r="F2337" s="136">
+      <c r="F2337" s="113">
         <v>27</v>
       </c>
     </row>
     <row r="2338" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2338" s="131"/>
-      <c r="B2338" s="132"/>
+      <c r="A2338" s="158"/>
+      <c r="B2338" s="159"/>
       <c r="C2338" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D2338" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2338" s="135">
+      <c r="E2338" s="116">
         <v>98000</v>
       </c>
-      <c r="F2338" s="136">
+      <c r="F2338" s="113">
         <v>15</v>
       </c>
     </row>
     <row r="2339" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2339" s="131"/>
-      <c r="B2339" s="132"/>
+      <c r="A2339" s="158"/>
+      <c r="B2339" s="159"/>
       <c r="C2339" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D2339" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2339" s="135">
+      <c r="E2339" s="116">
         <v>142500</v>
       </c>
-      <c r="F2339" s="136">
+      <c r="F2339" s="113">
         <v>18</v>
       </c>
     </row>
     <row r="2340" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2340" s="131">
+      <c r="A2340" s="158">
         <v>45954</v>
       </c>
-      <c r="B2340" s="132" t="s">
+      <c r="B2340" s="159" t="s">
         <v>111</v>
       </c>
       <c r="C2340" s="3" t="s">
@@ -48467,114 +48467,114 @@
       <c r="D2340" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2340" s="135">
+      <c r="E2340" s="116">
         <v>115000</v>
       </c>
-      <c r="F2340" s="136">
+      <c r="F2340" s="113">
         <v>28</v>
       </c>
     </row>
     <row r="2341" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2341" s="131"/>
-      <c r="B2341" s="132"/>
+      <c r="A2341" s="158"/>
+      <c r="B2341" s="159"/>
       <c r="C2341" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D2341" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2341" s="135">
+      <c r="E2341" s="116">
         <v>95000</v>
       </c>
-      <c r="F2341" s="136">
+      <c r="F2341" s="113">
         <v>20</v>
       </c>
     </row>
     <row r="2342" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2342" s="131"/>
-      <c r="B2342" s="132"/>
+      <c r="A2342" s="158"/>
+      <c r="B2342" s="159"/>
       <c r="C2342" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2342" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2342" s="135">
+      <c r="E2342" s="116">
         <v>115000</v>
       </c>
-      <c r="F2342" s="136">
+      <c r="F2342" s="113">
         <v>42</v>
       </c>
     </row>
     <row r="2343" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2343" s="131"/>
-      <c r="B2343" s="132"/>
+      <c r="A2343" s="158"/>
+      <c r="B2343" s="159"/>
       <c r="C2343" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D2343" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2343" s="135">
+      <c r="E2343" s="116">
         <v>95000</v>
       </c>
-      <c r="F2343" s="136">
+      <c r="F2343" s="113">
         <v>21</v>
       </c>
     </row>
     <row r="2344" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2344" s="131"/>
-      <c r="B2344" s="132"/>
+      <c r="A2344" s="158"/>
+      <c r="B2344" s="159"/>
       <c r="C2344" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2344" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2344" s="135">
+      <c r="E2344" s="116">
         <v>92000</v>
       </c>
-      <c r="F2344" s="136">
+      <c r="F2344" s="113">
         <v>33</v>
       </c>
     </row>
     <row r="2345" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2345" s="131"/>
-      <c r="B2345" s="132"/>
+      <c r="A2345" s="158"/>
+      <c r="B2345" s="159"/>
       <c r="C2345" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D2345" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2345" s="135">
+      <c r="E2345" s="116">
         <v>98000</v>
       </c>
-      <c r="F2345" s="136">
+      <c r="F2345" s="113">
         <v>17</v>
       </c>
     </row>
     <row r="2346" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2346" s="131"/>
-      <c r="B2346" s="132"/>
+      <c r="A2346" s="158"/>
+      <c r="B2346" s="159"/>
       <c r="C2346" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D2346" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2346" s="135">
+      <c r="E2346" s="116">
         <v>142500</v>
       </c>
-      <c r="F2346" s="136">
+      <c r="F2346" s="113">
         <v>22</v>
       </c>
     </row>
     <row r="2347" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2347" s="131">
+      <c r="A2347" s="158">
         <v>45957</v>
       </c>
-      <c r="B2347" s="132" t="s">
+      <c r="B2347" s="159" t="s">
         <v>111</v>
       </c>
       <c r="C2347" s="3" t="s">
@@ -48583,114 +48583,114 @@
       <c r="D2347" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2347" s="135">
+      <c r="E2347" s="116">
         <v>115000</v>
       </c>
-      <c r="F2347" s="136">
+      <c r="F2347" s="113">
         <v>30</v>
       </c>
     </row>
     <row r="2348" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2348" s="131"/>
-      <c r="B2348" s="132"/>
+      <c r="A2348" s="158"/>
+      <c r="B2348" s="159"/>
       <c r="C2348" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D2348" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2348" s="135">
+      <c r="E2348" s="116">
         <v>95000</v>
       </c>
-      <c r="F2348" s="136">
+      <c r="F2348" s="113">
         <v>22</v>
       </c>
     </row>
     <row r="2349" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2349" s="131"/>
-      <c r="B2349" s="132"/>
+      <c r="A2349" s="158"/>
+      <c r="B2349" s="159"/>
       <c r="C2349" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2349" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2349" s="135">
+      <c r="E2349" s="116">
         <v>115000</v>
       </c>
-      <c r="F2349" s="136">
+      <c r="F2349" s="113">
         <v>38</v>
       </c>
     </row>
     <row r="2350" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2350" s="131"/>
-      <c r="B2350" s="132"/>
+      <c r="A2350" s="158"/>
+      <c r="B2350" s="159"/>
       <c r="C2350" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D2350" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2350" s="135">
+      <c r="E2350" s="116">
         <v>95000</v>
       </c>
-      <c r="F2350" s="136">
+      <c r="F2350" s="113">
         <v>22</v>
       </c>
     </row>
     <row r="2351" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2351" s="131"/>
-      <c r="B2351" s="132"/>
+      <c r="A2351" s="158"/>
+      <c r="B2351" s="159"/>
       <c r="C2351" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2351" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2351" s="135">
+      <c r="E2351" s="116">
         <v>92000</v>
       </c>
-      <c r="F2351" s="136">
+      <c r="F2351" s="113">
         <v>34</v>
       </c>
     </row>
     <row r="2352" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2352" s="131"/>
-      <c r="B2352" s="132"/>
+      <c r="A2352" s="158"/>
+      <c r="B2352" s="159"/>
       <c r="C2352" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D2352" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2352" s="135">
+      <c r="E2352" s="116">
         <v>98000</v>
       </c>
-      <c r="F2352" s="136">
+      <c r="F2352" s="113">
         <v>18</v>
       </c>
     </row>
     <row r="2353" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2353" s="131"/>
-      <c r="B2353" s="132"/>
+      <c r="A2353" s="158"/>
+      <c r="B2353" s="159"/>
       <c r="C2353" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D2353" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2353" s="135">
+      <c r="E2353" s="116">
         <v>142500</v>
       </c>
-      <c r="F2353" s="136">
+      <c r="F2353" s="113">
         <v>21</v>
       </c>
     </row>
     <row r="2354" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2354" s="131">
+      <c r="A2354" s="158">
         <v>45958</v>
       </c>
-      <c r="B2354" s="132" t="s">
+      <c r="B2354" s="159" t="s">
         <v>111</v>
       </c>
       <c r="C2354" s="3" t="s">
@@ -48702,13 +48702,13 @@
       <c r="E2354" s="3">
         <v>115000</v>
       </c>
-      <c r="F2354" s="136">
+      <c r="F2354" s="113">
         <v>30</v>
       </c>
     </row>
     <row r="2355" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2355" s="131"/>
-      <c r="B2355" s="132"/>
+      <c r="A2355" s="158"/>
+      <c r="B2355" s="159"/>
       <c r="C2355" s="3" t="s">
         <v>3</v>
       </c>
@@ -48718,13 +48718,13 @@
       <c r="E2355" s="3">
         <v>95000</v>
       </c>
-      <c r="F2355" s="136">
+      <c r="F2355" s="113">
         <v>22</v>
       </c>
     </row>
     <row r="2356" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2356" s="131"/>
-      <c r="B2356" s="132"/>
+      <c r="A2356" s="158"/>
+      <c r="B2356" s="159"/>
       <c r="C2356" s="3" t="s">
         <v>5</v>
       </c>
@@ -48734,13 +48734,13 @@
       <c r="E2356" s="3">
         <v>115000</v>
       </c>
-      <c r="F2356" s="136">
+      <c r="F2356" s="113">
         <v>30</v>
       </c>
     </row>
     <row r="2357" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2357" s="131"/>
-      <c r="B2357" s="132"/>
+      <c r="A2357" s="158"/>
+      <c r="B2357" s="159"/>
       <c r="C2357" s="3" t="s">
         <v>7</v>
       </c>
@@ -48750,13 +48750,13 @@
       <c r="E2357" s="3">
         <v>95000</v>
       </c>
-      <c r="F2357" s="136">
+      <c r="F2357" s="113">
         <v>14</v>
       </c>
     </row>
     <row r="2358" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2358" s="131"/>
-      <c r="B2358" s="132"/>
+      <c r="A2358" s="158"/>
+      <c r="B2358" s="159"/>
       <c r="C2358" s="3" t="s">
         <v>9</v>
       </c>
@@ -48766,13 +48766,13 @@
       <c r="E2358" s="3">
         <v>92000</v>
       </c>
-      <c r="F2358" s="136">
+      <c r="F2358" s="113">
         <v>28</v>
       </c>
     </row>
     <row r="2359" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2359" s="131"/>
-      <c r="B2359" s="132"/>
+      <c r="A2359" s="158"/>
+      <c r="B2359" s="159"/>
       <c r="C2359" s="3" t="s">
         <v>11</v>
       </c>
@@ -48782,13 +48782,13 @@
       <c r="E2359" s="3">
         <v>98000</v>
       </c>
-      <c r="F2359" s="136">
+      <c r="F2359" s="113">
         <v>18</v>
       </c>
     </row>
     <row r="2360" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2360" s="131"/>
-      <c r="B2360" s="132"/>
+      <c r="A2360" s="158"/>
+      <c r="B2360" s="159"/>
       <c r="C2360" s="3" t="s">
         <v>110</v>
       </c>
@@ -48798,15 +48798,15 @@
       <c r="E2360" s="3">
         <v>142500</v>
       </c>
-      <c r="F2360" s="136">
+      <c r="F2360" s="113">
         <v>22</v>
       </c>
     </row>
     <row r="2361" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2361" s="131">
+      <c r="A2361" s="158">
         <v>45959</v>
       </c>
-      <c r="B2361" s="132" t="s">
+      <c r="B2361" s="159" t="s">
         <v>111</v>
       </c>
       <c r="C2361" s="3" t="s">
@@ -48818,13 +48818,13 @@
       <c r="E2361" s="3">
         <v>115000</v>
       </c>
-      <c r="F2361" s="136">
+      <c r="F2361" s="113">
         <v>30</v>
       </c>
     </row>
     <row r="2362" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2362" s="131"/>
-      <c r="B2362" s="132"/>
+      <c r="A2362" s="158"/>
+      <c r="B2362" s="159"/>
       <c r="C2362" s="3" t="s">
         <v>3</v>
       </c>
@@ -48834,13 +48834,13 @@
       <c r="E2362" s="3">
         <v>95000</v>
       </c>
-      <c r="F2362" s="136">
+      <c r="F2362" s="113">
         <v>18</v>
       </c>
     </row>
     <row r="2363" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2363" s="131"/>
-      <c r="B2363" s="132"/>
+      <c r="A2363" s="158"/>
+      <c r="B2363" s="159"/>
       <c r="C2363" s="3" t="s">
         <v>5</v>
       </c>
@@ -48850,13 +48850,13 @@
       <c r="E2363" s="3">
         <v>115000</v>
       </c>
-      <c r="F2363" s="136">
+      <c r="F2363" s="113">
         <v>25</v>
       </c>
     </row>
     <row r="2364" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2364" s="131"/>
-      <c r="B2364" s="132"/>
+      <c r="A2364" s="158"/>
+      <c r="B2364" s="159"/>
       <c r="C2364" s="3" t="s">
         <v>7</v>
       </c>
@@ -48866,13 +48866,13 @@
       <c r="E2364" s="3">
         <v>95000</v>
       </c>
-      <c r="F2364" s="136">
+      <c r="F2364" s="113">
         <v>17</v>
       </c>
     </row>
     <row r="2365" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2365" s="131"/>
-      <c r="B2365" s="132"/>
+      <c r="A2365" s="158"/>
+      <c r="B2365" s="159"/>
       <c r="C2365" s="3" t="s">
         <v>9</v>
       </c>
@@ -48882,13 +48882,13 @@
       <c r="E2365" s="3">
         <v>92000</v>
       </c>
-      <c r="F2365" s="136">
+      <c r="F2365" s="113">
         <v>28</v>
       </c>
     </row>
     <row r="2366" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2366" s="131"/>
-      <c r="B2366" s="132"/>
+      <c r="A2366" s="158"/>
+      <c r="B2366" s="159"/>
       <c r="C2366" s="3" t="s">
         <v>11</v>
       </c>
@@ -48898,13 +48898,13 @@
       <c r="E2366" s="3">
         <v>98000</v>
       </c>
-      <c r="F2366" s="136">
+      <c r="F2366" s="113">
         <v>18</v>
       </c>
     </row>
     <row r="2367" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2367" s="131"/>
-      <c r="B2367" s="132"/>
+      <c r="A2367" s="158"/>
+      <c r="B2367" s="159"/>
       <c r="C2367" s="3" t="s">
         <v>110</v>
       </c>
@@ -48914,15 +48914,15 @@
       <c r="E2367" s="3">
         <v>142500</v>
       </c>
-      <c r="F2367" s="136">
+      <c r="F2367" s="113">
         <v>20</v>
       </c>
     </row>
     <row r="2368" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2368" s="131">
+      <c r="A2368" s="158">
         <v>45960</v>
       </c>
-      <c r="B2368" s="132" t="s">
+      <c r="B2368" s="159" t="s">
         <v>111</v>
       </c>
       <c r="C2368" s="3" t="s">
@@ -48934,13 +48934,13 @@
       <c r="E2368" s="3">
         <v>115000</v>
       </c>
-      <c r="F2368" s="136">
+      <c r="F2368" s="113">
         <v>28</v>
       </c>
     </row>
     <row r="2369" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2369" s="131"/>
-      <c r="B2369" s="132"/>
+      <c r="A2369" s="158"/>
+      <c r="B2369" s="159"/>
       <c r="C2369" s="3" t="s">
         <v>3</v>
       </c>
@@ -48950,13 +48950,13 @@
       <c r="E2369" s="3">
         <v>95000</v>
       </c>
-      <c r="F2369" s="136">
+      <c r="F2369" s="113">
         <v>18</v>
       </c>
     </row>
     <row r="2370" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2370" s="131"/>
-      <c r="B2370" s="132"/>
+      <c r="A2370" s="158"/>
+      <c r="B2370" s="159"/>
       <c r="C2370" s="3" t="s">
         <v>5</v>
       </c>
@@ -48966,13 +48966,13 @@
       <c r="E2370" s="3">
         <v>115000</v>
       </c>
-      <c r="F2370" s="136">
+      <c r="F2370" s="113">
         <v>31</v>
       </c>
     </row>
     <row r="2371" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2371" s="131"/>
-      <c r="B2371" s="132"/>
+      <c r="A2371" s="158"/>
+      <c r="B2371" s="159"/>
       <c r="C2371" s="3" t="s">
         <v>7</v>
       </c>
@@ -48982,13 +48982,13 @@
       <c r="E2371" s="3">
         <v>95000</v>
       </c>
-      <c r="F2371" s="136">
+      <c r="F2371" s="113">
         <v>20</v>
       </c>
     </row>
     <row r="2372" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2372" s="131"/>
-      <c r="B2372" s="132"/>
+      <c r="A2372" s="158"/>
+      <c r="B2372" s="159"/>
       <c r="C2372" s="3" t="s">
         <v>9</v>
       </c>
@@ -48998,13 +48998,13 @@
       <c r="E2372" s="3">
         <v>92000</v>
       </c>
-      <c r="F2372" s="136">
+      <c r="F2372" s="113">
         <v>32</v>
       </c>
     </row>
     <row r="2373" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2373" s="131"/>
-      <c r="B2373" s="132"/>
+      <c r="A2373" s="158"/>
+      <c r="B2373" s="159"/>
       <c r="C2373" s="3" t="s">
         <v>11</v>
       </c>
@@ -49014,13 +49014,13 @@
       <c r="E2373" s="3">
         <v>98000</v>
       </c>
-      <c r="F2373" s="136">
+      <c r="F2373" s="113">
         <v>17</v>
       </c>
     </row>
     <row r="2374" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2374" s="131"/>
-      <c r="B2374" s="132"/>
+      <c r="A2374" s="158"/>
+      <c r="B2374" s="159"/>
       <c r="C2374" s="3" t="s">
         <v>110</v>
       </c>
@@ -49030,15 +49030,15 @@
       <c r="E2374" s="3">
         <v>142500</v>
       </c>
-      <c r="F2374" s="136">
+      <c r="F2374" s="113">
         <v>17</v>
       </c>
     </row>
     <row r="2375" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2375" s="133">
+      <c r="A2375" s="114">
         <v>45961</v>
       </c>
-      <c r="B2375" s="134" t="s">
+      <c r="B2375" s="115" t="s">
         <v>111</v>
       </c>
       <c r="C2375" s="3" t="s">
@@ -49050,7 +49050,7 @@
       <c r="E2375" s="3">
         <v>115000</v>
       </c>
-      <c r="F2375" s="136">
+      <c r="F2375" s="113">
         <v>10</v>
       </c>
     </row>
@@ -49066,7 +49066,7 @@
       <c r="E2376" s="3">
         <v>95000</v>
       </c>
-      <c r="F2376" s="136">
+      <c r="F2376" s="113">
         <v>5</v>
       </c>
     </row>
@@ -49082,7 +49082,7 @@
       <c r="E2377" s="3">
         <v>115000</v>
       </c>
-      <c r="F2377" s="136">
+      <c r="F2377" s="113">
         <v>15</v>
       </c>
     </row>
@@ -49095,10 +49095,10 @@
       <c r="D2378" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2378" s="137">
+      <c r="E2378" s="117">
         <v>47500</v>
       </c>
-      <c r="F2378" s="136">
+      <c r="F2378" s="113">
         <v>12</v>
       </c>
     </row>
@@ -49114,7 +49114,7 @@
       <c r="E2379" s="3">
         <v>92000</v>
       </c>
-      <c r="F2379" s="136">
+      <c r="F2379" s="113">
         <v>20</v>
       </c>
     </row>
@@ -49130,7 +49130,7 @@
       <c r="E2380" s="3">
         <v>98000</v>
       </c>
-      <c r="F2380" s="136">
+      <c r="F2380" s="113">
         <v>10</v>
       </c>
     </row>
@@ -49146,1256 +49146,1316 @@
       <c r="E2381" s="3">
         <v>142500</v>
       </c>
-      <c r="F2381" s="136">
+      <c r="F2381" s="113">
         <v>6</v>
       </c>
     </row>
     <row r="2382" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2382" s="138">
+      <c r="A2382" s="152">
         <v>45931</v>
       </c>
-      <c r="B2382" s="139" t="s">
+      <c r="B2382" s="155" t="s">
         <v>113</v>
       </c>
-      <c r="C2382" s="140" t="s">
+      <c r="C2382" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="D2382" s="141" t="s">
+      <c r="D2382" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="E2382" s="142">
+      <c r="E2382" s="122">
         <v>95000</v>
       </c>
-      <c r="F2382" s="143">
+      <c r="F2382" s="123">
         <v>16</v>
       </c>
     </row>
     <row r="2383" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2383" s="144"/>
-      <c r="B2383" s="145"/>
-      <c r="C2383" s="146" t="s">
+      <c r="A2383" s="153"/>
+      <c r="B2383" s="156"/>
+      <c r="C2383" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="D2383" s="147" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2383" s="148">
+      <c r="D2383" s="125" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2383" s="126">
         <v>80000</v>
       </c>
-      <c r="F2383" s="149">
+      <c r="F2383" s="127">
         <v>9</v>
       </c>
     </row>
     <row r="2384" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2384" s="144"/>
-      <c r="B2384" s="145"/>
-      <c r="C2384" s="146" t="s">
+      <c r="A2384" s="153"/>
+      <c r="B2384" s="156"/>
+      <c r="C2384" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="D2384" s="147" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2384" s="148">
+      <c r="D2384" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2384" s="126">
         <v>115000</v>
       </c>
-      <c r="F2384" s="149">
+      <c r="F2384" s="127">
         <v>35</v>
       </c>
     </row>
     <row r="2385" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2385" s="144"/>
-      <c r="B2385" s="145"/>
-      <c r="C2385" s="146" t="s">
+      <c r="A2385" s="153"/>
+      <c r="B2385" s="156"/>
+      <c r="C2385" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="D2385" s="147" t="s">
+      <c r="D2385" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="E2385" s="148">
+      <c r="E2385" s="126">
         <v>86000</v>
       </c>
-      <c r="F2385" s="149">
+      <c r="F2385" s="127">
         <v>17</v>
       </c>
     </row>
     <row r="2386" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2386" s="144"/>
-      <c r="B2386" s="145"/>
-      <c r="C2386" s="150" t="s">
+      <c r="A2386" s="153"/>
+      <c r="B2386" s="156"/>
+      <c r="C2386" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="D2386" s="151" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2386" s="152">
+      <c r="D2386" s="129" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2386" s="130">
         <v>90000</v>
       </c>
-      <c r="F2386" s="149">
+      <c r="F2386" s="127">
         <v>12</v>
       </c>
     </row>
     <row r="2387" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2387" s="153"/>
-      <c r="B2387" s="154"/>
-      <c r="C2387" s="155" t="s">
+      <c r="A2387" s="154"/>
+      <c r="B2387" s="157"/>
+      <c r="C2387" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="D2387" s="156" t="s">
+      <c r="D2387" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="E2387" s="157">
+      <c r="E2387" s="133">
         <v>120000</v>
       </c>
-      <c r="F2387" s="158">
+      <c r="F2387" s="134">
         <v>11</v>
       </c>
     </row>
     <row r="2388" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2388" s="138">
+      <c r="A2388" s="152">
         <v>45932</v>
       </c>
-      <c r="B2388" s="139" t="s">
+      <c r="B2388" s="155" t="s">
         <v>113</v>
       </c>
-      <c r="C2388" s="140" t="s">
+      <c r="C2388" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="D2388" s="141" t="s">
+      <c r="D2388" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="E2388" s="142">
+      <c r="E2388" s="122">
         <v>95000</v>
       </c>
-      <c r="F2388" s="159">
+      <c r="F2388" s="135">
         <v>16</v>
       </c>
     </row>
     <row r="2389" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2389" s="144"/>
-      <c r="B2389" s="145"/>
-      <c r="C2389" s="146" t="s">
+      <c r="A2389" s="153"/>
+      <c r="B2389" s="156"/>
+      <c r="C2389" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="D2389" s="147" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2389" s="148">
+      <c r="D2389" s="125" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2389" s="126">
         <v>80000</v>
       </c>
-      <c r="F2389" s="160">
+      <c r="F2389" s="136">
         <v>11</v>
       </c>
     </row>
     <row r="2390" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2390" s="144"/>
-      <c r="B2390" s="145"/>
-      <c r="C2390" s="146" t="s">
+      <c r="A2390" s="153"/>
+      <c r="B2390" s="156"/>
+      <c r="C2390" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="D2390" s="147" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2390" s="148">
+      <c r="D2390" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2390" s="126">
         <v>115000</v>
       </c>
-      <c r="F2390" s="160">
+      <c r="F2390" s="136">
         <v>38</v>
       </c>
     </row>
     <row r="2391" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2391" s="144"/>
-      <c r="B2391" s="145"/>
-      <c r="C2391" s="146" t="s">
+      <c r="A2391" s="153"/>
+      <c r="B2391" s="156"/>
+      <c r="C2391" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="D2391" s="147" t="s">
+      <c r="D2391" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="E2391" s="148">
+      <c r="E2391" s="126">
         <v>86000</v>
       </c>
-      <c r="F2391" s="160">
+      <c r="F2391" s="136">
         <v>17</v>
       </c>
     </row>
     <row r="2392" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2392" s="144"/>
-      <c r="B2392" s="145"/>
-      <c r="C2392" s="150" t="s">
+      <c r="A2392" s="153"/>
+      <c r="B2392" s="156"/>
+      <c r="C2392" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="D2392" s="151" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2392" s="152">
+      <c r="D2392" s="129" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2392" s="130">
         <v>90000</v>
       </c>
-      <c r="F2392" s="160">
+      <c r="F2392" s="136">
         <v>12</v>
       </c>
     </row>
     <row r="2393" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2393" s="153"/>
-      <c r="B2393" s="154"/>
-      <c r="C2393" s="155" t="s">
+      <c r="A2393" s="154"/>
+      <c r="B2393" s="157"/>
+      <c r="C2393" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="D2393" s="156" t="s">
+      <c r="D2393" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="E2393" s="157">
+      <c r="E2393" s="133">
         <v>120000</v>
       </c>
-      <c r="F2393" s="161">
+      <c r="F2393" s="137">
         <v>15</v>
       </c>
     </row>
     <row r="2394" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2394" s="138">
+      <c r="A2394" s="152">
         <v>45933</v>
       </c>
-      <c r="B2394" s="139" t="s">
+      <c r="B2394" s="155" t="s">
         <v>113</v>
       </c>
-      <c r="C2394" s="140" t="s">
+      <c r="C2394" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="D2394" s="141" t="s">
+      <c r="D2394" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="E2394" s="142">
+      <c r="E2394" s="122">
         <v>95000</v>
       </c>
-      <c r="F2394" s="159">
+      <c r="F2394" s="135">
         <v>17</v>
       </c>
     </row>
     <row r="2395" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2395" s="144"/>
-      <c r="B2395" s="145"/>
-      <c r="C2395" s="146" t="s">
+      <c r="A2395" s="153"/>
+      <c r="B2395" s="156"/>
+      <c r="C2395" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="D2395" s="147" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2395" s="148">
+      <c r="D2395" s="125" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2395" s="126">
         <v>80000</v>
       </c>
-      <c r="F2395" s="160">
+      <c r="F2395" s="136">
         <v>8</v>
       </c>
     </row>
     <row r="2396" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2396" s="144"/>
-      <c r="B2396" s="145"/>
-      <c r="C2396" s="146" t="s">
+      <c r="A2396" s="153"/>
+      <c r="B2396" s="156"/>
+      <c r="C2396" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="D2396" s="147" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2396" s="148">
+      <c r="D2396" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2396" s="126">
         <v>115000</v>
       </c>
-      <c r="F2396" s="160">
+      <c r="F2396" s="136">
         <v>37</v>
       </c>
     </row>
     <row r="2397" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2397" s="144"/>
-      <c r="B2397" s="145"/>
-      <c r="C2397" s="146" t="s">
+      <c r="A2397" s="153"/>
+      <c r="B2397" s="156"/>
+      <c r="C2397" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="D2397" s="147" t="s">
+      <c r="D2397" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="E2397" s="148">
+      <c r="E2397" s="126">
         <v>86000</v>
       </c>
-      <c r="F2397" s="160">
+      <c r="F2397" s="136">
         <v>15</v>
       </c>
     </row>
     <row r="2398" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2398" s="144"/>
-      <c r="B2398" s="145"/>
-      <c r="C2398" s="150" t="s">
+      <c r="A2398" s="153"/>
+      <c r="B2398" s="156"/>
+      <c r="C2398" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="D2398" s="151" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2398" s="152">
+      <c r="D2398" s="129" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2398" s="130">
         <v>90000</v>
       </c>
-      <c r="F2398" s="160">
+      <c r="F2398" s="136">
         <v>12</v>
       </c>
     </row>
     <row r="2399" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2399" s="153"/>
-      <c r="B2399" s="154"/>
-      <c r="C2399" s="155" t="s">
+      <c r="A2399" s="154"/>
+      <c r="B2399" s="157"/>
+      <c r="C2399" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="D2399" s="156" t="s">
+      <c r="D2399" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="E2399" s="157">
+      <c r="E2399" s="133">
         <v>120000</v>
       </c>
-      <c r="F2399" s="161">
+      <c r="F2399" s="137">
         <v>6</v>
       </c>
     </row>
     <row r="2400" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2400" s="162">
+      <c r="A2400" s="118">
         <v>45934</v>
       </c>
-      <c r="B2400" s="163"/>
-      <c r="C2400" s="140" t="s">
+      <c r="B2400" s="119"/>
+      <c r="C2400" s="120" t="s">
         <v>112</v>
       </c>
-      <c r="D2400" s="141" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2400" s="142">
+      <c r="D2400" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2400" s="122">
         <v>120000</v>
       </c>
-      <c r="F2400" s="159">
+      <c r="F2400" s="135">
         <v>3</v>
       </c>
     </row>
     <row r="2401" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2401" s="138"/>
-      <c r="B2401" s="139"/>
-      <c r="C2401" s="140" t="s">
+      <c r="A2401" s="152">
+        <v>45936</v>
+      </c>
+      <c r="B2401" s="155"/>
+      <c r="C2401" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="D2401" s="141" t="s">
+      <c r="D2401" s="121" t="s">
         <v>114</v>
       </c>
-      <c r="E2401" s="142">
+      <c r="E2401" s="122">
         <v>105000</v>
       </c>
-      <c r="F2401" s="164">
+      <c r="F2401" s="138">
         <v>18</v>
       </c>
     </row>
     <row r="2402" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2402" s="144"/>
-      <c r="B2402" s="145"/>
-      <c r="C2402" s="146" t="s">
+      <c r="A2402" s="153"/>
+      <c r="B2402" s="156"/>
+      <c r="C2402" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="D2402" s="147" t="s">
+      <c r="D2402" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="E2402" s="148">
+      <c r="E2402" s="126">
         <v>95000</v>
       </c>
-      <c r="F2402" s="165">
+      <c r="F2402" s="139">
         <v>7</v>
       </c>
     </row>
     <row r="2403" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2403" s="144"/>
-      <c r="B2403" s="145"/>
-      <c r="C2403" s="146" t="s">
+      <c r="A2403" s="153"/>
+      <c r="B2403" s="156"/>
+      <c r="C2403" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="D2403" s="147" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2403" s="148">
+      <c r="D2403" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2403" s="126">
         <v>115000</v>
       </c>
-      <c r="F2403" s="165">
+      <c r="F2403" s="139">
         <v>38</v>
       </c>
     </row>
     <row r="2404" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2404" s="144"/>
-      <c r="B2404" s="145"/>
-      <c r="C2404" s="146" t="s">
+      <c r="A2404" s="153"/>
+      <c r="B2404" s="156"/>
+      <c r="C2404" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="D2404" s="147" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2404" s="148">
+      <c r="D2404" s="125" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2404" s="126">
         <v>80000</v>
       </c>
-      <c r="F2404" s="165">
+      <c r="F2404" s="139">
         <v>14</v>
       </c>
     </row>
     <row r="2405" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2405" s="144"/>
-      <c r="B2405" s="145"/>
-      <c r="C2405" s="146" t="s">
+      <c r="A2405" s="153"/>
+      <c r="B2405" s="156"/>
+      <c r="C2405" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="D2405" s="147" t="s">
+      <c r="D2405" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="E2405" s="148">
+      <c r="E2405" s="126">
         <v>89000</v>
       </c>
-      <c r="F2405" s="166">
+      <c r="F2405" s="140">
         <v>28</v>
       </c>
     </row>
     <row r="2406" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2406" s="144"/>
-      <c r="B2406" s="145"/>
-      <c r="C2406" s="150" t="s">
+      <c r="A2406" s="153"/>
+      <c r="B2406" s="156"/>
+      <c r="C2406" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="D2406" s="151" t="s">
+      <c r="D2406" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="E2406" s="152">
+      <c r="E2406" s="130">
         <v>98000</v>
       </c>
-      <c r="F2406" s="166">
+      <c r="F2406" s="140">
         <v>12</v>
       </c>
     </row>
     <row r="2407" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2407" s="153"/>
-      <c r="B2407" s="154"/>
-      <c r="C2407" s="155" t="s">
+      <c r="A2407" s="154"/>
+      <c r="B2407" s="157"/>
+      <c r="C2407" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="D2407" s="156" t="s">
+      <c r="D2407" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="E2407" s="157">
+      <c r="E2407" s="133">
         <v>142500</v>
       </c>
-      <c r="F2407" s="167">
+      <c r="F2407" s="141">
         <v>17</v>
       </c>
     </row>
     <row r="2408" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2408" s="138">
-        <f>J2408</f>
-        <v>0</v>
-      </c>
-      <c r="B2408" s="139" t="s">
+      <c r="A2408" s="152">
+        <v>45937</v>
+      </c>
+      <c r="B2408" s="155" t="s">
         <v>113</v>
       </c>
-      <c r="C2408" s="140" t="s">
+      <c r="C2408" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="D2408" s="141" t="s">
+      <c r="D2408" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="E2408" s="142">
+      <c r="E2408" s="122">
         <v>95000</v>
       </c>
-      <c r="F2408" s="159">
+      <c r="F2408" s="135">
         <v>21</v>
       </c>
     </row>
     <row r="2409" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2409" s="144"/>
-      <c r="B2409" s="145"/>
-      <c r="C2409" s="146" t="s">
+      <c r="A2409" s="153"/>
+      <c r="B2409" s="156"/>
+      <c r="C2409" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="D2409" s="147" t="s">
+      <c r="D2409" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="E2409" s="148">
+      <c r="E2409" s="126">
         <v>95000</v>
       </c>
-      <c r="F2409" s="160">
+      <c r="F2409" s="136">
         <v>12</v>
       </c>
     </row>
     <row r="2410" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2410" s="144"/>
-      <c r="B2410" s="145"/>
-      <c r="C2410" s="146" t="s">
+      <c r="A2410" s="153"/>
+      <c r="B2410" s="156"/>
+      <c r="C2410" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="D2410" s="147" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2410" s="148">
+      <c r="D2410" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2410" s="126">
         <v>115000</v>
       </c>
-      <c r="F2410" s="160">
+      <c r="F2410" s="136">
         <v>34</v>
       </c>
     </row>
     <row r="2411" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2411" s="144"/>
-      <c r="B2411" s="145"/>
-      <c r="C2411" s="146" t="s">
+      <c r="A2411" s="153"/>
+      <c r="B2411" s="156"/>
+      <c r="C2411" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="D2411" s="147" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2411" s="148">
+      <c r="D2411" s="125" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2411" s="126">
         <v>80000</v>
       </c>
-      <c r="F2411" s="160">
+      <c r="F2411" s="136">
         <v>13</v>
       </c>
     </row>
     <row r="2412" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2412" s="144"/>
-      <c r="B2412" s="145"/>
-      <c r="C2412" s="146" t="s">
+      <c r="A2412" s="153"/>
+      <c r="B2412" s="156"/>
+      <c r="C2412" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="D2412" s="147" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2412" s="148">
+      <c r="D2412" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2412" s="126">
         <v>92000</v>
       </c>
-      <c r="F2412" s="160">
+      <c r="F2412" s="136">
         <v>24</v>
       </c>
     </row>
     <row r="2413" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2413" s="144"/>
-      <c r="B2413" s="145"/>
-      <c r="C2413" s="150" t="s">
+      <c r="A2413" s="153"/>
+      <c r="B2413" s="156"/>
+      <c r="C2413" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="D2413" s="151" t="s">
+      <c r="D2413" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="E2413" s="152">
+      <c r="E2413" s="130">
         <v>98000</v>
       </c>
-      <c r="F2413" s="160">
+      <c r="F2413" s="136">
         <v>12</v>
       </c>
     </row>
     <row r="2414" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2414" s="153"/>
-      <c r="B2414" s="154"/>
-      <c r="C2414" s="155" t="s">
+      <c r="A2414" s="154"/>
+      <c r="B2414" s="157"/>
+      <c r="C2414" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="D2414" s="156" t="s">
+      <c r="D2414" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="E2414" s="157">
+      <c r="E2414" s="133">
         <v>142500</v>
       </c>
-      <c r="F2414" s="161">
+      <c r="F2414" s="137">
         <v>17</v>
       </c>
     </row>
     <row r="2415" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2415" s="138">
+      <c r="A2415" s="152">
         <v>45938</v>
       </c>
-      <c r="B2415" s="139" t="s">
+      <c r="B2415" s="155" t="s">
         <v>111</v>
       </c>
-      <c r="C2415" s="140" t="s">
+      <c r="C2415" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="D2415" s="141" t="s">
+      <c r="D2415" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="E2415" s="142">
+      <c r="E2415" s="122">
         <v>95000</v>
       </c>
-      <c r="F2415" s="159">
+      <c r="F2415" s="135">
         <v>22</v>
       </c>
     </row>
     <row r="2416" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2416" s="144"/>
-      <c r="B2416" s="145"/>
-      <c r="C2416" s="146" t="s">
+      <c r="A2416" s="153"/>
+      <c r="B2416" s="156"/>
+      <c r="C2416" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="D2416" s="147" t="s">
+      <c r="D2416" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="E2416" s="148">
+      <c r="E2416" s="126">
         <v>95000</v>
       </c>
-      <c r="F2416" s="168">
+      <c r="F2416" s="142">
         <v>8</v>
       </c>
     </row>
     <row r="2417" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2417" s="144"/>
-      <c r="B2417" s="145"/>
-      <c r="C2417" s="146" t="s">
+      <c r="A2417" s="153"/>
+      <c r="B2417" s="156"/>
+      <c r="C2417" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="D2417" s="147" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2417" s="148">
+      <c r="D2417" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2417" s="126">
         <v>115000</v>
       </c>
-      <c r="F2417" s="160">
+      <c r="F2417" s="136">
         <v>34</v>
       </c>
     </row>
     <row r="2418" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2418" s="144"/>
-      <c r="B2418" s="145"/>
-      <c r="C2418" s="146" t="s">
+      <c r="A2418" s="153"/>
+      <c r="B2418" s="156"/>
+      <c r="C2418" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="D2418" s="147" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2418" s="148">
+      <c r="D2418" s="125" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2418" s="126">
         <v>80000</v>
       </c>
-      <c r="F2418" s="160">
+      <c r="F2418" s="136">
         <v>13</v>
       </c>
     </row>
     <row r="2419" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2419" s="144"/>
-      <c r="B2419" s="145"/>
-      <c r="C2419" s="146" t="s">
+      <c r="A2419" s="153"/>
+      <c r="B2419" s="156"/>
+      <c r="C2419" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="D2419" s="147" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2419" s="148">
+      <c r="D2419" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2419" s="126">
         <v>92000</v>
       </c>
-      <c r="F2419" s="160">
+      <c r="F2419" s="136">
         <v>26</v>
       </c>
     </row>
     <row r="2420" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2420" s="144"/>
-      <c r="B2420" s="145"/>
-      <c r="C2420" s="150" t="s">
+      <c r="A2420" s="153"/>
+      <c r="B2420" s="156"/>
+      <c r="C2420" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="D2420" s="151" t="s">
+      <c r="D2420" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="E2420" s="152">
+      <c r="E2420" s="130">
         <v>98000</v>
       </c>
-      <c r="F2420" s="160">
+      <c r="F2420" s="136">
         <v>12</v>
       </c>
     </row>
     <row r="2421" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2421" s="153"/>
-      <c r="B2421" s="154"/>
-      <c r="C2421" s="155" t="s">
+      <c r="A2421" s="154"/>
+      <c r="B2421" s="157"/>
+      <c r="C2421" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="D2421" s="156" t="s">
+      <c r="D2421" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="E2421" s="157">
+      <c r="E2421" s="133">
         <v>142500</v>
       </c>
-      <c r="F2421" s="161">
+      <c r="F2421" s="137">
         <v>17</v>
       </c>
     </row>
     <row r="2422" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2422" s="138">
+      <c r="A2422" s="152">
         <v>45939</v>
       </c>
-      <c r="B2422" s="139" t="s">
+      <c r="B2422" s="155" t="s">
         <v>113</v>
       </c>
-      <c r="C2422" s="140" t="s">
+      <c r="C2422" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="D2422" s="141" t="s">
+      <c r="D2422" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="E2422" s="142">
+      <c r="E2422" s="122">
         <v>95000</v>
       </c>
-      <c r="F2422" s="169">
+      <c r="F2422" s="143">
         <v>18</v>
       </c>
     </row>
     <row r="2423" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2423" s="144"/>
-      <c r="B2423" s="145"/>
-      <c r="C2423" s="146" t="s">
+      <c r="A2423" s="153"/>
+      <c r="B2423" s="156"/>
+      <c r="C2423" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="D2423" s="147" t="s">
+      <c r="D2423" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="E2423" s="148">
+      <c r="E2423" s="126">
         <v>95000</v>
       </c>
-      <c r="F2423" s="143">
+      <c r="F2423" s="123">
         <v>12</v>
       </c>
     </row>
     <row r="2424" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2424" s="144"/>
-      <c r="B2424" s="145"/>
-      <c r="C2424" s="146" t="s">
+      <c r="A2424" s="153"/>
+      <c r="B2424" s="156"/>
+      <c r="C2424" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="D2424" s="147" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2424" s="148">
+      <c r="D2424" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2424" s="126">
         <v>115000</v>
       </c>
-      <c r="F2424" s="143">
+      <c r="F2424" s="123">
         <v>32</v>
       </c>
     </row>
     <row r="2425" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2425" s="144"/>
-      <c r="B2425" s="145"/>
-      <c r="C2425" s="146" t="s">
+      <c r="A2425" s="153"/>
+      <c r="B2425" s="156"/>
+      <c r="C2425" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="D2425" s="147" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2425" s="148">
+      <c r="D2425" s="125" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2425" s="126">
         <v>80000</v>
       </c>
-      <c r="F2425" s="149">
+      <c r="F2425" s="127">
         <v>13</v>
       </c>
     </row>
     <row r="2426" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2426" s="144"/>
-      <c r="B2426" s="145"/>
-      <c r="C2426" s="146" t="s">
+      <c r="A2426" s="153"/>
+      <c r="B2426" s="156"/>
+      <c r="C2426" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="D2426" s="147" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2426" s="148">
+      <c r="D2426" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2426" s="126">
         <v>92000</v>
       </c>
-      <c r="F2426" s="149">
+      <c r="F2426" s="127">
         <v>22</v>
       </c>
     </row>
     <row r="2427" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2427" s="144"/>
-      <c r="B2427" s="145"/>
-      <c r="C2427" s="150" t="s">
+      <c r="A2427" s="153"/>
+      <c r="B2427" s="156"/>
+      <c r="C2427" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="D2427" s="151" t="s">
+      <c r="D2427" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="E2427" s="152">
+      <c r="E2427" s="130">
         <v>98000</v>
       </c>
-      <c r="F2427" s="149">
+      <c r="F2427" s="127">
         <v>12</v>
       </c>
     </row>
     <row r="2428" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2428" s="153"/>
-      <c r="B2428" s="154"/>
-      <c r="C2428" s="155" t="s">
+      <c r="A2428" s="154"/>
+      <c r="B2428" s="157"/>
+      <c r="C2428" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="D2428" s="156" t="s">
+      <c r="D2428" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="E2428" s="157">
+      <c r="E2428" s="133">
         <v>142500</v>
       </c>
-      <c r="F2428" s="158">
+      <c r="F2428" s="134">
         <v>15</v>
       </c>
     </row>
     <row r="2429" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2429" s="138">
+      <c r="A2429" s="152">
         <v>42287</v>
       </c>
-      <c r="B2429" s="139" t="s">
+      <c r="B2429" s="155" t="s">
         <v>113</v>
       </c>
-      <c r="C2429" s="140" t="s">
+      <c r="C2429" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="D2429" s="141" t="s">
+      <c r="D2429" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="E2429" s="142">
+      <c r="E2429" s="122">
         <v>95000</v>
       </c>
-      <c r="F2429" s="169">
+      <c r="F2429" s="143">
         <v>15</v>
       </c>
     </row>
     <row r="2430" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2430" s="144"/>
-      <c r="B2430" s="145"/>
-      <c r="C2430" s="146" t="s">
+      <c r="A2430" s="153"/>
+      <c r="B2430" s="156"/>
+      <c r="C2430" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="D2430" s="147" t="s">
+      <c r="D2430" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="E2430" s="148">
+      <c r="E2430" s="126">
         <v>95000</v>
       </c>
-      <c r="F2430" s="149">
+      <c r="F2430" s="127">
         <v>10</v>
       </c>
     </row>
     <row r="2431" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2431" s="144"/>
-      <c r="B2431" s="145"/>
-      <c r="C2431" s="106" t="s">
+      <c r="A2431" s="153"/>
+      <c r="B2431" s="156"/>
+      <c r="C2431" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="D2431" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2431" s="130">
+      <c r="D2431" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2431" s="112">
         <v>115000</v>
       </c>
-      <c r="F2431" s="149">
+      <c r="F2431" s="127">
         <v>31</v>
       </c>
     </row>
     <row r="2432" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2432" s="144"/>
-      <c r="B2432" s="145"/>
-      <c r="C2432" s="106" t="s">
+      <c r="A2432" s="153"/>
+      <c r="B2432" s="156"/>
+      <c r="C2432" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="D2432" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2432" s="130">
+      <c r="D2432" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2432" s="112">
         <v>80000</v>
       </c>
-      <c r="F2432" s="149">
+      <c r="F2432" s="127">
         <v>26</v>
       </c>
     </row>
     <row r="2433" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2433" s="144"/>
-      <c r="B2433" s="145"/>
-      <c r="C2433" s="106" t="s">
+      <c r="A2433" s="153"/>
+      <c r="B2433" s="156"/>
+      <c r="C2433" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D2433" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2433" s="130">
+      <c r="D2433" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2433" s="112">
         <v>92000</v>
       </c>
-      <c r="F2433" s="149">
+      <c r="F2433" s="127">
         <v>22</v>
       </c>
     </row>
     <row r="2434" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2434" s="144"/>
-      <c r="B2434" s="145"/>
-      <c r="C2434" s="106" t="s">
+      <c r="A2434" s="153"/>
+      <c r="B2434" s="156"/>
+      <c r="C2434" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D2434" s="106" t="s">
+      <c r="D2434" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2434" s="130">
+      <c r="E2434" s="112">
         <v>98000</v>
       </c>
-      <c r="F2434" s="149">
+      <c r="F2434" s="127">
         <v>12</v>
       </c>
     </row>
     <row r="2435" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2435" s="144"/>
-      <c r="B2435" s="145"/>
-      <c r="C2435" s="106" t="s">
+      <c r="A2435" s="153"/>
+      <c r="B2435" s="156"/>
+      <c r="C2435" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D2435" s="106" t="s">
+      <c r="D2435" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2435" s="130">
+      <c r="E2435" s="112">
         <v>142500</v>
       </c>
-      <c r="F2435" s="149">
+      <c r="F2435" s="127">
         <v>16</v>
       </c>
     </row>
     <row r="2436" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2436" s="170">
+      <c r="A2436" s="146">
         <v>45943</v>
       </c>
-      <c r="B2436" s="171" t="s">
+      <c r="B2436" s="149" t="s">
         <v>113</v>
       </c>
-      <c r="C2436" s="140" t="s">
+      <c r="C2436" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="D2436" s="141" t="s">
+      <c r="D2436" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="E2436" s="142">
+      <c r="E2436" s="122">
         <v>95000</v>
       </c>
-      <c r="F2436" s="169">
+      <c r="F2436" s="143">
         <v>18</v>
       </c>
     </row>
     <row r="2437" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2437" s="172"/>
-      <c r="B2437" s="173"/>
-      <c r="C2437" s="146" t="s">
+      <c r="A2437" s="147"/>
+      <c r="B2437" s="150"/>
+      <c r="C2437" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="D2437" s="147" t="s">
+      <c r="D2437" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="E2437" s="148">
+      <c r="E2437" s="126">
         <v>95000</v>
       </c>
-      <c r="F2437" s="149">
+      <c r="F2437" s="127">
         <v>15</v>
       </c>
     </row>
     <row r="2438" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2438" s="172"/>
-      <c r="B2438" s="173"/>
-      <c r="C2438" s="106" t="s">
+      <c r="A2438" s="147"/>
+      <c r="B2438" s="150"/>
+      <c r="C2438" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="D2438" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2438" s="130">
+      <c r="D2438" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2438" s="112">
         <v>115000</v>
       </c>
-      <c r="F2438" s="149">
+      <c r="F2438" s="127">
         <v>40</v>
       </c>
     </row>
     <row r="2439" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2439" s="172"/>
-      <c r="B2439" s="173"/>
-      <c r="C2439" s="106" t="s">
+      <c r="A2439" s="147"/>
+      <c r="B2439" s="150"/>
+      <c r="C2439" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="D2439" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2439" s="130">
+      <c r="D2439" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2439" s="112">
         <v>80000</v>
       </c>
-      <c r="F2439" s="149">
+      <c r="F2439" s="127">
         <v>11</v>
       </c>
     </row>
     <row r="2440" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2440" s="172"/>
-      <c r="B2440" s="173"/>
-      <c r="C2440" s="106" t="s">
+      <c r="A2440" s="147"/>
+      <c r="B2440" s="150"/>
+      <c r="C2440" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D2440" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2440" s="130">
+      <c r="D2440" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2440" s="112">
         <v>92000</v>
       </c>
-      <c r="F2440" s="149">
+      <c r="F2440" s="127">
         <v>27</v>
       </c>
     </row>
     <row r="2441" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2441" s="172"/>
-      <c r="B2441" s="173"/>
-      <c r="C2441" s="106" t="s">
+      <c r="A2441" s="147"/>
+      <c r="B2441" s="150"/>
+      <c r="C2441" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D2441" s="106" t="s">
+      <c r="D2441" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2441" s="130">
+      <c r="E2441" s="112">
         <v>98000</v>
       </c>
-      <c r="F2441" s="149">
+      <c r="F2441" s="127">
         <v>12</v>
       </c>
     </row>
     <row r="2442" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2442" s="174"/>
-      <c r="B2442" s="175"/>
-      <c r="C2442" s="106" t="s">
+      <c r="A2442" s="148"/>
+      <c r="B2442" s="151"/>
+      <c r="C2442" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D2442" s="106" t="s">
+      <c r="D2442" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2442" s="130">
+      <c r="E2442" s="112">
         <v>142500</v>
       </c>
-      <c r="F2442" s="158">
+      <c r="F2442" s="134">
         <v>17</v>
       </c>
     </row>
     <row r="2443" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2443" s="170">
+      <c r="A2443" s="146">
         <v>45944</v>
       </c>
-      <c r="B2443" s="171" t="s">
+      <c r="B2443" s="149" t="s">
         <v>113</v>
       </c>
-      <c r="C2443" s="140" t="s">
+      <c r="C2443" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="D2443" s="141" t="s">
+      <c r="D2443" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="E2443" s="142">
+      <c r="E2443" s="122">
         <v>95000</v>
       </c>
-      <c r="F2443" s="169">
+      <c r="F2443" s="143">
         <v>16</v>
       </c>
     </row>
     <row r="2444" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2444" s="172"/>
-      <c r="B2444" s="173"/>
-      <c r="C2444" s="146" t="s">
+      <c r="A2444" s="147"/>
+      <c r="B2444" s="150"/>
+      <c r="C2444" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="D2444" s="147" t="s">
+      <c r="D2444" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="E2444" s="148">
+      <c r="E2444" s="126">
         <v>95000</v>
       </c>
-      <c r="F2444" s="143">
+      <c r="F2444" s="123">
         <v>13</v>
       </c>
     </row>
     <row r="2445" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2445" s="172"/>
-      <c r="B2445" s="173"/>
-      <c r="C2445" s="106" t="s">
+      <c r="A2445" s="147"/>
+      <c r="B2445" s="150"/>
+      <c r="C2445" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="D2445" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2445" s="130">
+      <c r="D2445" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2445" s="112">
         <v>115000</v>
       </c>
-      <c r="F2445" s="149">
+      <c r="F2445" s="127">
         <v>33</v>
       </c>
     </row>
     <row r="2446" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2446" s="172"/>
-      <c r="B2446" s="173"/>
-      <c r="C2446" s="106" t="s">
+      <c r="A2446" s="147"/>
+      <c r="B2446" s="150"/>
+      <c r="C2446" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="D2446" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2446" s="130">
+      <c r="D2446" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2446" s="112">
         <v>80000</v>
       </c>
-      <c r="F2446" s="149">
+      <c r="F2446" s="127">
         <v>12</v>
       </c>
     </row>
     <row r="2447" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2447" s="172"/>
-      <c r="B2447" s="173"/>
-      <c r="C2447" s="106" t="s">
+      <c r="A2447" s="147"/>
+      <c r="B2447" s="150"/>
+      <c r="C2447" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D2447" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2447" s="130">
+      <c r="D2447" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2447" s="112">
         <v>92000</v>
       </c>
-      <c r="F2447" s="149">
+      <c r="F2447" s="127">
         <v>25</v>
       </c>
     </row>
     <row r="2448" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2448" s="172"/>
-      <c r="B2448" s="173"/>
-      <c r="C2448" s="106" t="s">
+      <c r="A2448" s="147"/>
+      <c r="B2448" s="150"/>
+      <c r="C2448" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D2448" s="106" t="s">
+      <c r="D2448" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2448" s="130">
+      <c r="E2448" s="112">
         <v>98000</v>
       </c>
-      <c r="F2448" s="149">
+      <c r="F2448" s="127">
         <v>12</v>
       </c>
     </row>
     <row r="2449" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2449" s="174"/>
-      <c r="B2449" s="175"/>
-      <c r="C2449" s="176" t="s">
+      <c r="A2449" s="148"/>
+      <c r="B2449" s="151"/>
+      <c r="C2449" s="144" t="s">
         <v>110</v>
       </c>
-      <c r="D2449" s="176" t="s">
+      <c r="D2449" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="E2449" s="177">
+      <c r="E2449" s="145">
         <v>142500</v>
       </c>
-      <c r="F2449" s="158">
+      <c r="F2449" s="134">
         <v>15</v>
       </c>
     </row>
     <row r="2450" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2450" s="170">
+      <c r="A2450" s="146">
         <v>45945</v>
       </c>
-      <c r="B2450" s="171" t="s">
+      <c r="B2450" s="149" t="s">
         <v>113</v>
       </c>
-      <c r="C2450" s="140" t="s">
+      <c r="C2450" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="D2450" s="141" t="s">
+      <c r="D2450" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="E2450" s="142">
+      <c r="E2450" s="122">
         <v>95000</v>
       </c>
-      <c r="F2450" s="169">
+      <c r="F2450" s="143">
         <v>15</v>
       </c>
     </row>
     <row r="2451" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2451" s="172"/>
-      <c r="B2451" s="173"/>
-      <c r="C2451" s="146" t="s">
+      <c r="A2451" s="147"/>
+      <c r="B2451" s="150"/>
+      <c r="C2451" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="D2451" s="147" t="s">
+      <c r="D2451" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="E2451" s="148">
+      <c r="E2451" s="126">
         <v>95000</v>
       </c>
-      <c r="F2451" s="143">
+      <c r="F2451" s="123">
         <v>11</v>
       </c>
     </row>
     <row r="2452" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2452" s="172"/>
-      <c r="B2452" s="173"/>
-      <c r="C2452" s="106" t="s">
+      <c r="A2452" s="147"/>
+      <c r="B2452" s="150"/>
+      <c r="C2452" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="D2452" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2452" s="130">
+      <c r="D2452" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2452" s="112">
         <v>115000</v>
       </c>
-      <c r="F2452" s="149">
+      <c r="F2452" s="127">
         <v>36</v>
       </c>
     </row>
     <row r="2453" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2453" s="172"/>
-      <c r="B2453" s="173"/>
-      <c r="C2453" s="106" t="s">
+      <c r="A2453" s="147"/>
+      <c r="B2453" s="150"/>
+      <c r="C2453" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="D2453" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2453" s="130">
+      <c r="D2453" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2453" s="112">
         <v>80000</v>
       </c>
-      <c r="F2453" s="149">
+      <c r="F2453" s="127">
         <v>13</v>
       </c>
     </row>
     <row r="2454" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2454" s="172"/>
-      <c r="B2454" s="173"/>
-      <c r="C2454" s="106" t="s">
+      <c r="A2454" s="147"/>
+      <c r="B2454" s="150"/>
+      <c r="C2454" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D2454" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2454" s="130">
+      <c r="D2454" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2454" s="112">
         <v>92000</v>
       </c>
-      <c r="F2454" s="149">
+      <c r="F2454" s="127">
         <v>24</v>
       </c>
     </row>
     <row r="2455" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2455" s="172"/>
-      <c r="B2455" s="173"/>
-      <c r="C2455" s="106" t="s">
+      <c r="A2455" s="147"/>
+      <c r="B2455" s="150"/>
+      <c r="C2455" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D2455" s="106" t="s">
+      <c r="D2455" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E2455" s="130">
+      <c r="E2455" s="112">
         <v>98000</v>
       </c>
-      <c r="F2455" s="149">
+      <c r="F2455" s="127">
         <v>12</v>
       </c>
     </row>
     <row r="2456" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2456" s="174"/>
-      <c r="B2456" s="175"/>
-      <c r="C2456" s="176" t="s">
+      <c r="A2456" s="148"/>
+      <c r="B2456" s="151"/>
+      <c r="C2456" s="144" t="s">
         <v>110</v>
       </c>
-      <c r="D2456" s="176" t="s">
+      <c r="D2456" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="E2456" s="177">
+      <c r="E2456" s="145">
         <v>142500</v>
       </c>
-      <c r="F2456" s="158">
+      <c r="F2456" s="134">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F223" xr:uid="{28154246-E87C-42A3-8B74-67ABCF68DD92}"/>
   <mergeCells count="69">
+    <mergeCell ref="A2075:A2087"/>
+    <mergeCell ref="B2075:B2087"/>
+    <mergeCell ref="A2088:A2100"/>
+    <mergeCell ref="B2088:B2100"/>
+    <mergeCell ref="A2101:A2113"/>
+    <mergeCell ref="B2101:B2113"/>
+    <mergeCell ref="A2114:A2127"/>
+    <mergeCell ref="B2114:B2127"/>
+    <mergeCell ref="A2128:A2144"/>
+    <mergeCell ref="B2128:B2144"/>
+    <mergeCell ref="A2145:A2161"/>
+    <mergeCell ref="B2145:B2161"/>
+    <mergeCell ref="A2162:A2176"/>
+    <mergeCell ref="B2162:B2176"/>
+    <mergeCell ref="A2177:A2193"/>
+    <mergeCell ref="B2178:B2193"/>
+    <mergeCell ref="B2196:B2211"/>
+    <mergeCell ref="A2212:A2232"/>
+    <mergeCell ref="B2214:B2232"/>
+    <mergeCell ref="A2233:A2253"/>
+    <mergeCell ref="B2235:B2253"/>
+    <mergeCell ref="A2254:A2274"/>
+    <mergeCell ref="B2256:B2274"/>
+    <mergeCell ref="A2275:A2296"/>
+    <mergeCell ref="B2277:B2296"/>
+    <mergeCell ref="A2297:A2303"/>
+    <mergeCell ref="B2297:B2303"/>
+    <mergeCell ref="A2304:A2310"/>
+    <mergeCell ref="B2304:B2310"/>
+    <mergeCell ref="A2312:A2318"/>
+    <mergeCell ref="B2312:B2318"/>
+    <mergeCell ref="A2319:A2325"/>
+    <mergeCell ref="B2319:B2325"/>
+    <mergeCell ref="A2326:A2332"/>
+    <mergeCell ref="B2326:B2332"/>
+    <mergeCell ref="A2333:A2339"/>
+    <mergeCell ref="B2333:B2339"/>
+    <mergeCell ref="A2340:A2346"/>
+    <mergeCell ref="B2340:B2346"/>
+    <mergeCell ref="A2347:A2353"/>
+    <mergeCell ref="B2347:B2353"/>
+    <mergeCell ref="A2354:A2360"/>
+    <mergeCell ref="B2354:B2360"/>
+    <mergeCell ref="A2361:A2367"/>
+    <mergeCell ref="B2361:B2367"/>
+    <mergeCell ref="A2368:A2374"/>
+    <mergeCell ref="B2368:B2374"/>
+    <mergeCell ref="A2382:A2387"/>
+    <mergeCell ref="B2382:B2387"/>
+    <mergeCell ref="A2388:A2393"/>
+    <mergeCell ref="B2388:B2393"/>
+    <mergeCell ref="A2394:A2399"/>
+    <mergeCell ref="B2394:B2399"/>
+    <mergeCell ref="A2401:A2407"/>
+    <mergeCell ref="B2401:B2407"/>
+    <mergeCell ref="A2408:A2414"/>
+    <mergeCell ref="B2408:B2414"/>
+    <mergeCell ref="A2415:A2421"/>
+    <mergeCell ref="B2415:B2421"/>
     <mergeCell ref="A2443:A2449"/>
     <mergeCell ref="B2443:B2449"/>
     <mergeCell ref="A2450:A2456"/>
@@ -50406,65 +50466,6 @@
     <mergeCell ref="B2429:B2435"/>
     <mergeCell ref="A2436:A2442"/>
     <mergeCell ref="B2436:B2442"/>
-    <mergeCell ref="A2401:A2407"/>
-    <mergeCell ref="B2401:B2407"/>
-    <mergeCell ref="A2408:A2414"/>
-    <mergeCell ref="B2408:B2414"/>
-    <mergeCell ref="A2415:A2421"/>
-    <mergeCell ref="B2415:B2421"/>
-    <mergeCell ref="A2382:A2387"/>
-    <mergeCell ref="B2382:B2387"/>
-    <mergeCell ref="A2388:A2393"/>
-    <mergeCell ref="B2388:B2393"/>
-    <mergeCell ref="A2394:A2399"/>
-    <mergeCell ref="B2394:B2399"/>
-    <mergeCell ref="A2354:A2360"/>
-    <mergeCell ref="B2354:B2360"/>
-    <mergeCell ref="A2361:A2367"/>
-    <mergeCell ref="B2361:B2367"/>
-    <mergeCell ref="A2368:A2374"/>
-    <mergeCell ref="B2368:B2374"/>
-    <mergeCell ref="A2333:A2339"/>
-    <mergeCell ref="B2333:B2339"/>
-    <mergeCell ref="A2340:A2346"/>
-    <mergeCell ref="B2340:B2346"/>
-    <mergeCell ref="A2347:A2353"/>
-    <mergeCell ref="B2347:B2353"/>
-    <mergeCell ref="A2312:A2318"/>
-    <mergeCell ref="B2312:B2318"/>
-    <mergeCell ref="A2319:A2325"/>
-    <mergeCell ref="B2319:B2325"/>
-    <mergeCell ref="A2326:A2332"/>
-    <mergeCell ref="B2326:B2332"/>
-    <mergeCell ref="A2275:A2296"/>
-    <mergeCell ref="B2277:B2296"/>
-    <mergeCell ref="A2297:A2303"/>
-    <mergeCell ref="B2297:B2303"/>
-    <mergeCell ref="A2304:A2310"/>
-    <mergeCell ref="B2304:B2310"/>
-    <mergeCell ref="A2212:A2232"/>
-    <mergeCell ref="B2214:B2232"/>
-    <mergeCell ref="A2233:A2253"/>
-    <mergeCell ref="B2235:B2253"/>
-    <mergeCell ref="A2254:A2274"/>
-    <mergeCell ref="B2256:B2274"/>
-    <mergeCell ref="A2162:A2176"/>
-    <mergeCell ref="B2162:B2176"/>
-    <mergeCell ref="A2177:A2193"/>
-    <mergeCell ref="B2178:B2193"/>
-    <mergeCell ref="B2196:B2211"/>
-    <mergeCell ref="A2114:A2127"/>
-    <mergeCell ref="B2114:B2127"/>
-    <mergeCell ref="A2128:A2144"/>
-    <mergeCell ref="B2128:B2144"/>
-    <mergeCell ref="A2145:A2161"/>
-    <mergeCell ref="B2145:B2161"/>
-    <mergeCell ref="A2075:A2087"/>
-    <mergeCell ref="B2075:B2087"/>
-    <mergeCell ref="A2088:A2100"/>
-    <mergeCell ref="B2088:B2100"/>
-    <mergeCell ref="A2101:A2113"/>
-    <mergeCell ref="B2101:B2113"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
